--- a/MBA/绩效目标.xlsx
+++ b/MBA/绩效目标.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="14070" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="24135" windowHeight="14070" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="部门绩效目标" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="部门考核指标" sheetId="4" r:id="rId4"/>
     <sheet name="项目经理考核指标" sheetId="5" r:id="rId5"/>
     <sheet name="开发考核指标" sheetId="6" r:id="rId6"/>
+    <sheet name="项目经理考核表" sheetId="7" r:id="rId7"/>
+    <sheet name="项目经理考核表-态度部分" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>维度</t>
   </si>
@@ -182,6 +184,197 @@
   <si>
     <t>bug率
 (单位:个/开发人天)</t>
+  </si>
+  <si>
+    <t>项目经理绩效考核表</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>考核时间</t>
+  </si>
+  <si>
+    <t>考核成绩</t>
+  </si>
+  <si>
+    <t>绩效目标完成情况</t>
+  </si>
+  <si>
+    <t>实际指标值</t>
+  </si>
+  <si>
+    <t>完成级别</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>得分</t>
+  </si>
+  <si>
+    <t>2016年销售收入*1.51</t>
+  </si>
+  <si>
+    <t>2016年净利率*1.54</t>
+  </si>
+  <si>
+    <t>评价项目</t>
+  </si>
+  <si>
+    <t>评价指标</t>
+  </si>
+  <si>
+    <t>指标描述</t>
+  </si>
+  <si>
+    <t>自我评价</t>
+  </si>
+  <si>
+    <t>最终评价</t>
+  </si>
+  <si>
+    <t>技术
+能
+力
+(30分)</t>
+  </si>
+  <si>
+    <t>需求设计
+（10分）</t>
+  </si>
+  <si>
+    <t>能深入理解项目需求，功能设计完全满足用户需求，易用性好。文档表达清晰有条理（8－10）</t>
+  </si>
+  <si>
+    <t>能理解项目基本需求，功能设计可以满足用户需求，文档表达清楚（4－7）</t>
+  </si>
+  <si>
+    <t>基本理解项目需求，功能设计基本满足项目要求。（1－3）</t>
+  </si>
+  <si>
+    <t>技术能力
+（10分）</t>
+  </si>
+  <si>
+    <t>技术能力扎实全面，对于目前工作需求尚有余力，可快速解决工作中的技术难题。（8－10）</t>
+  </si>
+  <si>
+    <t>技术能力一般，满足本工作内容，解决技术问题解决效率不高。（4－7）</t>
+  </si>
+  <si>
+    <t>不主动了解技术发展，解决技术问题困难。（1－3）</t>
+  </si>
+  <si>
+    <t>编码和技术实现
+（10分）</t>
+  </si>
+  <si>
+    <t>编码质量高，bug很少。技术实现方案有效评估，合理且风险小。（8－10）</t>
+  </si>
+  <si>
+    <t>编码质量较好，bug不少能够处理 。技术实现方案评估可行。（4－7）</t>
+  </si>
+  <si>
+    <t>编码质量一般，bug比较多而且还有bug解决困难。技术实现方案欠评估。（1－3）</t>
+  </si>
+  <si>
+    <t>项目管理能力
+(40分)</t>
+  </si>
+  <si>
+    <t>计划和协调
+（10分</t>
+  </si>
+  <si>
+    <t>计划制定全面，有效组织团队工作，遇问题能够协调资源妥善解决。（8－10）</t>
+  </si>
+  <si>
+    <t>能够较好地制定计划并组织团队，遇问题可以解决，但是会影响进度或质量。（4－7）</t>
+  </si>
+  <si>
+    <t>计划制定风险考虑不足，团队工作组织不足，遇问题不能有效解决（1－3）</t>
+  </si>
+  <si>
+    <t>执行与计划完成
+（10分）</t>
+  </si>
+  <si>
+    <t>履行团队的开发测试流程，按照既定计划严格执行，按时完成或将项目滞后控制在10%以内。（8－10）</t>
+  </si>
+  <si>
+    <t>基本履行开发测试流程和按照计划执行，项目计划滞后控制30% （4－7）</t>
+  </si>
+  <si>
+    <t>不能完全履行开发测试流程或计划出现，项目计划超过30%（1－3）</t>
+  </si>
+  <si>
+    <t>监控和质量跟踪
+（10分）</t>
+  </si>
+  <si>
+    <t>项目各个阶段按流程的质量标准要求进行，项目发布后无重要bug出现。（8－10）</t>
+  </si>
+  <si>
+    <t>项目的各个阶段的质量标准并未达到，项目出现滞后或发布后有质量问题。（4－7）</t>
+  </si>
+  <si>
+    <t>项目的各个阶段的质量标准出现严重偏差，项目出现严重滞后或发布后有严重问题。（1－3）</t>
+  </si>
+  <si>
+    <t>成员管理和沟通
+（10分）</t>
+  </si>
+  <si>
+    <t>项目组沟通顺畅，及时有效对成员进行指导和反馈，和上级也进行充分的沟通和汇报。（8－10）</t>
+  </si>
+  <si>
+    <t>项目组沟通正常，会和成员进行适当的指导和反馈，适时向上级汇报。（4－7）</t>
+  </si>
+  <si>
+    <t>项目组沟通存在问题，和下属进行的指导和反馈比较少，很少向上级汇报。（1－3）</t>
+  </si>
+  <si>
+    <t>工作态度
+(30分)</t>
+  </si>
+  <si>
+    <t>主动高效
+（10分）</t>
+  </si>
+  <si>
+    <t>独立提出切实可行的改进方案，并推进实施，取得良好的成效。（9－10）</t>
+  </si>
+  <si>
+    <t>工作中主动发现问题，提出有价值的改进建议，调动各方面资源以达成目标。（7－8）</t>
+  </si>
+  <si>
+    <t>被动执行安排的工作，遇到困难被动等待，对工作中问题视而不见。（1－3）</t>
+  </si>
+  <si>
+    <t>目标感和自我要求
+（10分）</t>
+  </si>
+  <si>
+    <t>目标感强，不断想办法追求目标实现，严格要求自己，不断改进 。（8-10）</t>
+  </si>
+  <si>
+    <t>目标感较强， 追求目标的实现。有自动上升的欲望。（4-7）</t>
+  </si>
+  <si>
+    <t>目标感欠缺，缺乏自我要求（1-3）</t>
+  </si>
+  <si>
+    <t>学习和分享（10分）</t>
+  </si>
+  <si>
+    <t>主动学习，工作技能明显提高，分享并帮助团队成员进步。（8－10）</t>
+  </si>
+  <si>
+    <t>有意识地学习知识技能和业界先进经验，并在工作中实践，乐于分享。（4 - 7）</t>
+  </si>
+  <si>
+    <t>能够参加公司培训，在某些方面提高自己，有一定的分享。（1－3）</t>
   </si>
 </sst>
 </file>
@@ -189,13 +382,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,13 +397,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -230,39 +457,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,6 +487,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -288,17 +517,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,29 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,24 +563,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +582,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,13 +617,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +653,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,25 +689,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,19 +737,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,66 +791,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -617,7 +844,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -636,7 +865,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -656,12 +887,277 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -695,9 +1191,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -712,134 +1206,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1094,19 +1463,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,6 +1485,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1519,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1163,50 +1554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1221,156 +1568,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1378,245 +1831,314 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1954,178 +2476,178 @@
   <sheetData>
     <row r="2" ht="16.5"/>
     <row r="3" ht="22" customHeight="1" spans="3:6">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="124" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="3:6">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="128">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="3:6">
-      <c r="C5" s="73"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="129"/>
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="128">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="3:6">
-      <c r="C6" s="74"/>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="128">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="3:6">
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="128">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="3:6">
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="71" t="s">
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="128">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="3:6">
-      <c r="C9" s="76"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="71" t="s">
+      <c r="C9" s="132"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="128">
         <v>0.15</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="3:6">
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="79"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="3:6">
-      <c r="C11" s="73"/>
-      <c r="D11" s="71" t="s">
+      <c r="C11" s="129"/>
+      <c r="D11" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="135"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="3:6">
-      <c r="C12" s="73"/>
-      <c r="D12" s="71" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="79"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="3:6">
-      <c r="C13" s="73"/>
-      <c r="D13" s="71" t="s">
+      <c r="C13" s="129"/>
+      <c r="D13" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="3:6">
-      <c r="C14" s="73"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="71" t="s">
+      <c r="C14" s="129"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="128">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="3:6">
-      <c r="C15" s="74"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="71" t="s">
+      <c r="C15" s="130"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="128">
         <v>0.05</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="3:6">
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="128">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="3:6">
-      <c r="C17" s="76"/>
-      <c r="D17" s="71" t="s">
+      <c r="C17" s="132"/>
+      <c r="D17" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="79"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="135"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="3:6">
-      <c r="C18" s="82"/>
-      <c r="D18" s="83" t="s">
+      <c r="C18" s="138"/>
+      <c r="D18" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="140">
         <v>0.05</v>
       </c>
     </row>
@@ -2155,130 +2677,130 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="15.5" style="53" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="14" style="54" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="14" style="112" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.5"/>
     <row r="3" ht="15" customHeight="1" spans="3:6">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="115" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="3:6">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="117">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="3:6">
-      <c r="C5" s="15"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="117">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="3:6">
-      <c r="C6" s="15"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="117">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="3:6">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="117">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="3:6">
-      <c r="C8" s="15"/>
-      <c r="D8" s="60" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="117">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="3:6">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="117"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="3:6">
-      <c r="C10" s="15"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="117"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="3:6">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59">
+      <c r="E11" s="118"/>
+      <c r="F11" s="117">
         <v>0.15</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="3:6">
-      <c r="C12" s="18"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65">
+      <c r="E12" s="123"/>
+      <c r="F12" s="122">
         <v>0.15</v>
       </c>
     </row>
@@ -2306,151 +2828,151 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="15.5" style="53" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="14" style="54" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="14" style="112" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="3:6">
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="112"/>
     </row>
     <row r="2" customFormat="1" ht="16.5" spans="3:6">
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="112"/>
     </row>
     <row r="3" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="115" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="117">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C5" s="15"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="117">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C6" s="15"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="117">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="117">
         <v>0.4</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C8" s="15"/>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="117">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C9" s="15"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="58" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="117">
         <v>0.15</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="117"/>
     </row>
     <row r="11" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C11" s="15"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="117"/>
     </row>
     <row r="12" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="117"/>
     </row>
     <row r="13" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C13" s="18"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="78"/>
+      <c r="D13" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2478,290 +3000,290 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="3:9">
-      <c r="C1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" customFormat="1" ht="17.25" customHeight="1" spans="3:9">
-      <c r="C2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="6" ht="16.5"/>
     <row r="7" ht="17.25" spans="3:9">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="108" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" ht="27.75" spans="3:9">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="109">
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="27.75" spans="3:9">
-      <c r="C9" s="33"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="109">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="27.75" spans="3:9">
-      <c r="C10" s="33"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="92"/>
+      <c r="D10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="98">
         <v>0.2</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="98">
         <v>0.22</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="98">
         <v>0.24</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="109">
         <v>5</v>
       </c>
     </row>
     <row r="11" ht="27.75" spans="3:9">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="101">
         <v>0.2</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="101">
         <v>0.15</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="101">
         <v>0.1</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="109">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="3:9">
-      <c r="C12" s="33"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="95">
         <v>6</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="95">
         <v>5</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="95">
         <v>4.5</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="109">
         <v>25</v>
       </c>
     </row>
     <row r="13" ht="27.75" spans="3:9">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="50"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" ht="27.75" spans="3:9">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="95">
         <v>5</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="95">
         <v>4.5</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="95">
         <v>4</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="109">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="27.75" spans="3:9">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="102">
         <v>0.2</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="102">
         <v>0.15</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="102">
         <v>0.1</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="109">
         <v>5</v>
       </c>
     </row>
     <row r="16" ht="27.75" spans="3:9">
-      <c r="C16" s="33"/>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="92"/>
+      <c r="D16" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="102">
         <v>0.2</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="102">
         <v>0.15</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="102">
         <v>0.1</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="109">
         <v>5</v>
       </c>
     </row>
     <row r="17" ht="27.75" spans="3:9">
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="95">
         <v>18</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="95">
         <v>24</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="95">
         <v>30</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="109">
         <v>2</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="3:9">
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="38" t="s">
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="98">
         <v>0.8</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="98">
         <v>0.85</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="98">
         <v>0.9</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="110">
         <v>3</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="3:9">
-      <c r="C19" s="44"/>
-      <c r="D19" s="46" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="107">
         <v>80</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="107">
         <v>82.5</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="107">
         <v>85</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="111">
         <v>5</v>
       </c>
     </row>
@@ -2790,218 +3312,218 @@
   <dimension ref="C1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="M16" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="3:9">
-      <c r="C1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" customFormat="1" ht="16.5" spans="3:9">
-      <c r="C2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" customFormat="1" ht="22" customHeight="1" spans="3:9">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="3:9">
-      <c r="C4" s="7" t="s">
+    <row r="4" s="34" customFormat="1" ht="39" customHeight="1" spans="3:9">
+      <c r="C4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="83">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C5" s="10"/>
-      <c r="D5" s="8" t="s">
+    <row r="5" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
+      <c r="C5" s="71"/>
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="83">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
+      <c r="C6" s="72"/>
+      <c r="D6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="75">
         <v>0.2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="75">
         <v>0.22</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="75">
         <v>0.24</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="83">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="40" customHeight="1" spans="3:9">
-      <c r="C7" s="15" t="s">
+    <row r="7" s="34" customFormat="1" ht="40" customHeight="1" spans="3:9">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="76">
         <v>0.2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="76">
         <v>0.15</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="76">
         <v>0.1</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="83">
         <v>25</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="44" customHeight="1" spans="3:9">
-      <c r="C8" s="15"/>
-      <c r="D8" s="8" t="s">
+    <row r="8" s="34" customFormat="1" ht="44" customHeight="1" spans="3:9">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="70">
         <v>6</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="70">
         <v>5</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="70">
         <v>4.5</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="83">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="45" customHeight="1" spans="3:9">
-      <c r="C9" s="15" t="s">
+    <row r="9" s="34" customFormat="1" ht="45" customHeight="1" spans="3:9">
+      <c r="C9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="70">
         <v>2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="70">
         <v>3</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="70">
         <v>4</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="83">
         <v>6</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="3:9">
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="13" t="s">
+    <row r="10" s="34" customFormat="1" ht="28" customHeight="1" spans="3:9">
+      <c r="C10" s="69"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="75">
         <v>0.8</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="75">
         <v>0.85</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="75">
         <v>0.9</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="87">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="34" customHeight="1" spans="3:9">
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
+    <row r="11" s="34" customFormat="1" ht="34" customHeight="1" spans="3:9">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="81">
         <v>80</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="81">
         <v>82.5</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="81">
         <v>85</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="84">
         <v>15</v>
       </c>
     </row>
@@ -3022,178 +3544,178 @@
   <sheetPr/>
   <dimension ref="C1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="36" customWidth="1"/>
     <col min="14" max="14" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="3:9">
-      <c r="C1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" customFormat="1" ht="16.5" spans="3:9">
-      <c r="C2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" customFormat="1" ht="22" customHeight="1" spans="3:9">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="3:9">
-      <c r="C4" s="7" t="s">
+    <row r="4" s="34" customFormat="1" ht="39" customHeight="1" spans="3:9">
+      <c r="C4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="83">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C5" s="10"/>
-      <c r="D5" s="8" t="s">
+    <row r="5" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
+      <c r="C5" s="71"/>
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="83">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
+      <c r="C6" s="72"/>
+      <c r="D6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="75">
         <v>0.2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="75">
         <v>0.22</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="75">
         <v>0.24</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="83">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="40" customHeight="1" spans="3:9">
-      <c r="C7" s="15" t="s">
+    <row r="7" s="34" customFormat="1" ht="40" customHeight="1" spans="3:9">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="76">
         <v>0.2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="76">
         <v>0.15</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="76">
         <v>0.1</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="83">
         <v>40</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="40" customHeight="1" spans="3:9">
-      <c r="C8" s="15"/>
-      <c r="D8" s="8" t="s">
+    <row r="8" s="34" customFormat="1" ht="40" customHeight="1" spans="3:9">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="70">
         <v>6</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="70">
         <v>5</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="70">
         <v>4.5</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="83">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="44" customHeight="1" spans="3:9">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
+    <row r="9" s="34" customFormat="1" ht="44" customHeight="1" spans="3:9">
+      <c r="C9" s="78"/>
+      <c r="D9" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="81">
         <v>0.15</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="81">
         <v>0.1</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="81">
         <v>0.75</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="84">
         <v>15</v>
       </c>
     </row>
@@ -3211,4 +3733,744 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="9.125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="3:9">
+      <c r="C1" s="35"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" customFormat="1" ht="16.5" spans="3:9">
+      <c r="C2" s="35"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" customFormat="1" ht="16.5" spans="3:9">
+      <c r="C3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="60"/>
+    </row>
+    <row r="4" s="33" customFormat="1" ht="34" customHeight="1" spans="3:9">
+      <c r="C4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" s="33" customFormat="1" ht="26" customHeight="1" spans="3:9">
+      <c r="C5" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="62"/>
+    </row>
+    <row r="6" customFormat="1" ht="22" customHeight="1" spans="3:9">
+      <c r="C6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" s="34" customFormat="1" ht="39" customHeight="1" spans="3:9">
+      <c r="C7" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="52">
+        <v>5</v>
+      </c>
+      <c r="I7" s="64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="53">
+        <v>10</v>
+      </c>
+      <c r="I8" s="64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0.241</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="53">
+        <v>5</v>
+      </c>
+      <c r="I9" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" s="34" customFormat="1" ht="40" customHeight="1" spans="3:9">
+      <c r="C10" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="54">
+        <v>0.14</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="53">
+        <v>25</v>
+      </c>
+      <c r="I10" s="64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="34" customFormat="1" ht="44" customHeight="1" spans="3:9">
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="50">
+        <v>5.1</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="53">
+        <v>25</v>
+      </c>
+      <c r="I11" s="64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="34" customFormat="1" ht="45" customHeight="1" spans="3:9">
+      <c r="C12" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="50">
+        <v>4</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="53">
+        <v>6</v>
+      </c>
+      <c r="I12" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" s="34" customFormat="1" ht="28" customHeight="1" spans="3:9">
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="54">
+        <v>0.84</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="53">
+        <v>9</v>
+      </c>
+      <c r="I13" s="64">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" s="34" customFormat="1" ht="28" customHeight="1" spans="3:9">
+      <c r="C14" s="56"/>
+      <c r="D14" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="50">
+        <v>83</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="53">
+        <v>15</v>
+      </c>
+      <c r="I14" s="64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" s="34" customFormat="1" ht="34" customHeight="1" spans="3:9">
+      <c r="C15" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="65">
+        <f>SUM(I7:I14)</f>
+        <v>75.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="35.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1"/>
+    <row r="2" ht="12"/>
+    <row r="3" ht="30" customHeight="1" spans="3:7">
+      <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="3:7">
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" ht="29" customHeight="1" spans="3:7">
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" ht="26" customHeight="1" spans="3:7">
+      <c r="C7" s="12"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="12"/>
+      <c r="D8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:7">
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="3:7">
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="3:7">
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="3:7">
+      <c r="C12" s="12"/>
+      <c r="D12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="10">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="25" customHeight="1" spans="3:7">
+      <c r="C13" s="12"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="3:7">
+      <c r="C14" s="12"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="3:7">
+      <c r="C15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="10">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="33.75" spans="3:7">
+      <c r="C16" s="12"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" ht="31" customHeight="1" spans="3:7">
+      <c r="C17" s="12"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" ht="22.5" spans="3:7">
+      <c r="C18" s="12"/>
+      <c r="D18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="10">
+        <v>8</v>
+      </c>
+      <c r="G18" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="3:7">
+      <c r="C19" s="12"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" ht="33" customHeight="1" spans="3:7">
+      <c r="C20" s="12"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="3:7">
+      <c r="C21" s="12"/>
+      <c r="D21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="10">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" ht="26" customHeight="1" spans="3:7">
+      <c r="C22" s="12"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" ht="32" customHeight="1" spans="3:7">
+      <c r="C23" s="12"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" ht="26" customHeight="1" spans="3:7">
+      <c r="C24" s="12"/>
+      <c r="D24" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="10">
+        <v>8</v>
+      </c>
+      <c r="G24" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="32" customHeight="1" spans="3:7">
+      <c r="C25" s="12"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" ht="22.5" spans="3:7">
+      <c r="C26" s="12"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" ht="27" customHeight="1" spans="3:7">
+      <c r="C27" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="10">
+        <v>8</v>
+      </c>
+      <c r="G27" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:7">
+      <c r="C28" s="25"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" ht="25" customHeight="1" spans="3:9">
+      <c r="C29" s="25"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="1">
+        <f>75.4*0.8+77*0.2</f>
+        <v>75.72</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="3:7">
+      <c r="C30" s="25"/>
+      <c r="D30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="10">
+        <v>8</v>
+      </c>
+      <c r="G30" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" spans="3:7">
+      <c r="C31" s="25"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="25"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" ht="22.5" spans="3:7">
+      <c r="C33" s="25"/>
+      <c r="D33" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="10">
+        <v>7</v>
+      </c>
+      <c r="G33" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" spans="3:7">
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" ht="22.5" spans="3:7">
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" ht="21" customHeight="1" spans="3:7">
+      <c r="C36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31">
+        <f>SUM(F4:F35)</f>
+        <v>78</v>
+      </c>
+      <c r="G36" s="32">
+        <f>SUM(G4:G35)</f>
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="C15:C26"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/MBA/绩效目标.xlsx
+++ b/MBA/绩效目标.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hejia/GitHub/MyDocument/MBA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="14070" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="部门绩效目标" sheetId="1" r:id="rId1"/>
@@ -12,16 +17,25 @@
     <sheet name="开发人员绩效目标" sheetId="3" r:id="rId3"/>
     <sheet name="部门考核指标" sheetId="4" r:id="rId4"/>
     <sheet name="项目经理考核指标" sheetId="5" r:id="rId5"/>
-    <sheet name="开发考核指标" sheetId="6" r:id="rId6"/>
-    <sheet name="项目经理考核表" sheetId="7" r:id="rId7"/>
-    <sheet name="项目经理考核表-态度部分" sheetId="8" r:id="rId8"/>
+    <sheet name="考核统计" sheetId="9" r:id="rId6"/>
+    <sheet name="开发考核指标" sheetId="6" r:id="rId7"/>
+    <sheet name="项目经理考核表" sheetId="7" r:id="rId8"/>
+    <sheet name="项目经理考核表-态度部分" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
   <si>
     <t>维度</t>
   </si>
@@ -376,23 +390,129 @@
   <si>
     <t>能够参加公司培训，在某些方面提高自己，有一定的分享。（1－3）</t>
   </si>
+  <si>
+    <t>表 3-3 M软件公司研发部们绩效管理问卷调查统计表(选择题部分)</t>
+  </si>
+  <si>
+    <t>调查维度</t>
+  </si>
+  <si>
+    <t>人数(单位:人)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 统计均值</t>
+  </si>
+  <si>
+    <t>完全</t>
+  </si>
+  <si>
+    <t>同意</t>
+  </si>
+  <si>
+    <t>基本</t>
+  </si>
+  <si>
+    <t>说不</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>不同意</t>
+  </si>
+  <si>
+    <t>一、绩效计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1、我很清楚公司及部门的年度绩效目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3、我很清楚个人的年度绩效目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3、我认为公司、部门及个人的绩效目标设置的非常合理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4、我认为公司、部门及个人的绩效目标有很强的关联性</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5、我的个人绩效目标有很强的导向性，能帮助我找到工作的重点</t>
+  </si>
+  <si>
+    <t>二、绩效实施</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6、我认为公司和绩效相关的工作都能按计划推进并监控到位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7、公司会及时总结绩效管理中发现的问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8、公司会与员工探讨绩效的相关的内容并欢迎员工提出宝贵意见</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9、公司会安排时间对绩效相关的内容进行讲解并解答员工的疑问</t>
+  </si>
+  <si>
+    <t>三、绩效考核</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10、绩效考核的频率比较合理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11、绩效考核的内容设置非常合理能反映我的真实绩效水平</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12、我在考核中总是能得到客观公正的评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13、我的同事总能在考核中得到客观公正的评价</t>
+  </si>
+  <si>
+    <t>四、绩效反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14、考核结束后,上级领导会及时与我进行绩效反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15、我在绩效反馈中能知晓绩效考核的结果以及得到该考核结果的原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16、上级领导会在绩效反馈中对我工作的表现优异处进行表扬</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17、上级领导会在绩效反馈中指出我工作表现不够优异之处</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18、上级领导会在反馈中对我下一阶段的工作进行指导、提出改进意见</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19、绩效反馈会对我的工作产生非常积极的影响</t>
+  </si>
+  <si>
+    <t>五、绩效结果的应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20、绩效考核的结果会很直接的影响工资待遇以及职位变化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21、我在绩效反馈中提的意见公司会很快的在后续流程中进行改进</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -457,352 +577,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="62">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1480,252 +1292,84 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1743,456 +1387,473 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2459,348 +2120,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C2:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="16.5"/>
-    <row r="3" ht="22" customHeight="1" spans="3:6">
-      <c r="C3" s="66" t="s">
+    <row r="3" spans="3:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="3:6">
-      <c r="C4" s="125" t="s">
+    <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="128">
+      <c r="F4" s="83">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="3:6">
-      <c r="C5" s="129"/>
-      <c r="D5" s="126" t="s">
+    <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="89"/>
+      <c r="D5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="83">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="3:6">
-      <c r="C6" s="130"/>
-      <c r="D6" s="131" t="s">
+    <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="90"/>
+      <c r="D6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="83">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="3:6">
-      <c r="C7" s="132" t="s">
+    <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="83">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="3:6">
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="127" t="s">
+    <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="83">
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="3:6">
-      <c r="C9" s="132"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="127" t="s">
+    <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="91"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="83">
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="3:6">
-      <c r="C10" s="125" t="s">
+    <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="135"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="3:6">
-      <c r="C11" s="129"/>
-      <c r="D11" s="127" t="s">
+      <c r="F10" s="85"/>
+    </row>
+    <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="89"/>
+      <c r="D11" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="135"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="3:6">
-      <c r="C12" s="129"/>
-      <c r="D12" s="127" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="85"/>
+    </row>
+    <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="89"/>
+      <c r="D12" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="135"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="3:6">
-      <c r="C13" s="129"/>
-      <c r="D13" s="127" t="s">
+      <c r="E12" s="94"/>
+      <c r="F12" s="85"/>
+    </row>
+    <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="89"/>
+      <c r="D13" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="3:6">
-      <c r="C14" s="129"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="127" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="85"/>
+    </row>
+    <row r="14" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="89"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="83">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="3:6">
-      <c r="C15" s="130"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="127" t="s">
+    <row r="15" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="90"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="83">
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="3:6">
-      <c r="C16" s="132" t="s">
+    <row r="16" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="83">
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="3:6">
-      <c r="C17" s="132"/>
-      <c r="D17" s="127" t="s">
+    <row r="17" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="91"/>
+      <c r="D17" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="127"/>
-      <c r="F17" s="135"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="3:6">
-      <c r="C18" s="138"/>
-      <c r="D18" s="139" t="s">
+      <c r="E17" s="82"/>
+      <c r="F17" s="85"/>
+    </row>
+    <row r="18" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="92"/>
+      <c r="D18" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="140">
+      <c r="F18" s="87">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E10:E13"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C2:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="14" style="112" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="16.5"/>
-    <row r="3" ht="15" customHeight="1" spans="3:6">
-      <c r="C3" s="113" t="s">
+    <row r="3" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="3:6">
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="75">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="3:6">
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
+    <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="99"/>
+      <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="75">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="3:6">
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
+    <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="99"/>
+      <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="75">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="3:6">
-      <c r="C7" s="49" t="s">
+    <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="117">
+      <c r="F7" s="75">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="3:6">
-      <c r="C8" s="49"/>
-      <c r="D8" s="118" t="s">
+    <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="99"/>
+      <c r="D8" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="75">
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="3:6">
-      <c r="C9" s="49" t="s">
+    <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="117"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="3:6">
-      <c r="C10" s="49"/>
-      <c r="D10" s="116" t="s">
+      <c r="F9" s="75"/>
+    </row>
+    <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="99"/>
+      <c r="D10" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="117"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="3:6">
-      <c r="C11" s="49" t="s">
+      <c r="E10" s="101"/>
+      <c r="F10" s="75"/>
+    </row>
+    <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="117">
+      <c r="E11" s="76"/>
+      <c r="F11" s="75">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="3:6">
-      <c r="C12" s="78"/>
-      <c r="D12" s="120" t="s">
+    <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="100"/>
+      <c r="D12" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="123"/>
-      <c r="F12" s="122">
+      <c r="E12" s="79"/>
+      <c r="F12" s="78">
         <v>0.15</v>
       </c>
     </row>
@@ -2812,718 +2469,686 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="E9:E10"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="14" style="112" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="3:6">
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="112"/>
-    </row>
-    <row r="2" customFormat="1" ht="16.5" spans="3:6">
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="112"/>
-    </row>
-    <row r="3" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C3" s="113" t="s">
+    <row r="3" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="75">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
+    <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="99"/>
+      <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="75">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
+    <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="99"/>
+      <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="75">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C7" s="49" t="s">
+    <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="117">
+      <c r="F7" s="75">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C8" s="49"/>
-      <c r="D8" s="73" t="s">
+    <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="99"/>
+      <c r="D8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="75">
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C9" s="49"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="116" t="s">
+    <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="99"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="75">
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C10" s="49" t="s">
+    <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="117"/>
-    </row>
-    <row r="11" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C11" s="49"/>
-      <c r="D11" s="116" t="s">
+      <c r="F10" s="75"/>
+    </row>
+    <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="99"/>
+      <c r="D11" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="117"/>
-    </row>
-    <row r="12" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C12" s="49" t="s">
+      <c r="E11" s="103"/>
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="117"/>
-    </row>
-    <row r="13" customFormat="1" ht="15" customHeight="1" spans="3:6">
-      <c r="C13" s="78"/>
-      <c r="D13" s="120" t="s">
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="100"/>
+      <c r="D13" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="3:9">
-      <c r="C1" s="35"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" customFormat="1" ht="17.25" customHeight="1" spans="3:9">
-      <c r="C2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="6" ht="16.5"/>
-    <row r="7" ht="17.25" spans="3:9">
-      <c r="C7" s="88" t="s">
+    <row r="2" spans="3:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="27.75" spans="3:9">
-      <c r="C8" s="92" t="s">
+    <row r="8" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C8" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="67">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="27.75" spans="3:9">
-      <c r="C9" s="92"/>
-      <c r="D9" s="93" t="s">
+    <row r="9" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C9" s="105"/>
+      <c r="D9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="109">
+      <c r="I9" s="67">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="27.75" spans="3:9">
-      <c r="C10" s="92"/>
-      <c r="D10" s="96" t="s">
+    <row r="10" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C10" s="105"/>
+      <c r="D10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="58">
         <v>0.2</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="58">
         <v>0.22</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="58">
         <v>0.24</v>
       </c>
-      <c r="I10" s="109">
+      <c r="I10" s="67">
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="27.75" spans="3:9">
-      <c r="C11" s="92" t="s">
+    <row r="11" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C11" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="61">
         <v>0.2</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="61">
         <v>0.15</v>
       </c>
-      <c r="H11" s="101">
+      <c r="H11" s="61">
         <v>0.1</v>
       </c>
-      <c r="I11" s="109">
+      <c r="I11" s="67">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="3:9">
-      <c r="C12" s="92"/>
-      <c r="D12" s="93" t="s">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="105"/>
+      <c r="D12" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="109">
         <v>6</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="109">
         <v>5</v>
       </c>
-      <c r="H12" s="95">
+      <c r="H12" s="109">
         <v>4.5</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="110">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="27.75" spans="3:9">
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94" t="s">
+    <row r="13" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C13" s="105"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="109"/>
-    </row>
-    <row r="14" ht="27.75" spans="3:9">
-      <c r="C14" s="92"/>
-      <c r="D14" s="93" t="s">
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
+    </row>
+    <row r="14" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C14" s="105"/>
+      <c r="D14" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="55">
         <v>5</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G14" s="55">
         <v>4.5</v>
       </c>
-      <c r="H14" s="95">
+      <c r="H14" s="55">
         <v>4</v>
       </c>
-      <c r="I14" s="109">
+      <c r="I14" s="67">
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="27.75" spans="3:9">
-      <c r="C15" s="92" t="s">
+    <row r="15" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C15" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="62">
         <v>0.2</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G15" s="62">
         <v>0.15</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="62">
         <v>0.1</v>
       </c>
-      <c r="I15" s="109">
+      <c r="I15" s="67">
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="27.75" spans="3:9">
-      <c r="C16" s="92"/>
-      <c r="D16" s="93" t="s">
+    <row r="16" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C16" s="105"/>
+      <c r="D16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="62">
         <v>0.2</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="62">
         <v>0.15</v>
       </c>
-      <c r="H16" s="102">
+      <c r="H16" s="62">
         <v>0.1</v>
       </c>
-      <c r="I16" s="109">
+      <c r="I16" s="67">
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="27.75" spans="3:9">
-      <c r="C17" s="103" t="s">
+    <row r="17" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C17" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="55">
         <v>18</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="55">
         <v>24</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H17" s="55">
         <v>30</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I17" s="67">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="28.5" spans="3:9">
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="97" t="s">
+    <row r="18" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C18" s="106"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="58">
         <v>0.8</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="58">
         <v>0.85</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="58">
         <v>0.9</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="68">
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="3:9">
-      <c r="C19" s="103"/>
-      <c r="D19" s="105" t="s">
+    <row r="19" spans="3:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="C19" s="106"/>
+      <c r="D19" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="65">
         <v>80</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="65">
         <v>82.5</v>
       </c>
-      <c r="H19" s="107">
+      <c r="H19" s="65">
         <v>85</v>
       </c>
-      <c r="I19" s="111">
+      <c r="I19" s="69">
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="16.5"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="3:9">
-      <c r="C1" s="35"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" customFormat="1" ht="16.5" spans="3:9">
-      <c r="C2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" customFormat="1" ht="22" customHeight="1" spans="3:9">
-      <c r="C3" s="66" t="s">
+    <row r="3" spans="3:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="34" customFormat="1" ht="39" customHeight="1" spans="3:9">
-      <c r="C4" s="69" t="s">
+    <row r="4" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C5" s="71"/>
-      <c r="D5" s="50" t="s">
+    <row r="5" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="112"/>
+      <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="46">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C6" s="72"/>
-      <c r="D6" s="73" t="s">
+    <row r="6" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="113"/>
+      <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="39">
         <v>0.2</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="39">
         <v>0.22</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="39">
         <v>0.24</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="34" customFormat="1" ht="40" customHeight="1" spans="3:9">
-      <c r="C7" s="49" t="s">
+    <row r="7" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="40">
         <v>0.2</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="40">
         <v>0.15</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="40">
         <v>0.1</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="46">
         <v>25</v>
       </c>
     </row>
-    <row r="8" s="34" customFormat="1" ht="44" customHeight="1" spans="3:9">
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+    <row r="8" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="99"/>
+      <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="36">
         <v>6</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="36">
         <v>5</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="36">
         <v>4.5</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="46">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="34" customFormat="1" ht="45" customHeight="1" spans="3:9">
-      <c r="C9" s="49" t="s">
+    <row r="9" spans="3:9" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="36">
         <v>2</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="36">
         <v>3</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="36">
         <v>4</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="46">
         <v>6</v>
       </c>
     </row>
-    <row r="10" s="34" customFormat="1" ht="28" customHeight="1" spans="3:9">
-      <c r="C10" s="69"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="74" t="s">
+    <row r="10" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="111"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="39">
         <v>0.8</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="39">
         <v>0.85</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="39">
         <v>0.9</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="48">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="34" customFormat="1" ht="34" customHeight="1" spans="3:9">
-      <c r="C11" s="78"/>
-      <c r="D11" s="79" t="s">
+    <row r="11" spans="3:9" s="14" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="100"/>
+      <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="44">
         <v>80</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="44">
         <v>82.5</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="44">
         <v>85</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="47">
         <v>15</v>
       </c>
     </row>
@@ -3534,195 +3159,847 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D10"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.5" style="158" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="141" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="159" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="156"/>
+      <c r="C4" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="160"/>
+    </row>
+    <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="157"/>
+      <c r="C5" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="161"/>
+    </row>
+    <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="162">
+        <f>SUM(H7:H11)/5</f>
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="144" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="143">
+        <v>14</v>
+      </c>
+      <c r="D7" s="143">
+        <v>10</v>
+      </c>
+      <c r="E7" s="143">
+        <v>12</v>
+      </c>
+      <c r="F7" s="143">
+        <v>4</v>
+      </c>
+      <c r="G7" s="143">
+        <v>0</v>
+      </c>
+      <c r="H7" s="162">
+        <f>(C7*5+D7*4+E7*3+F7*2+G7*1)/40</f>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="143">
+        <v>14</v>
+      </c>
+      <c r="D8" s="143">
+        <v>12</v>
+      </c>
+      <c r="E8" s="143">
+        <v>8</v>
+      </c>
+      <c r="F8" s="143">
+        <v>6</v>
+      </c>
+      <c r="G8" s="143">
+        <v>0</v>
+      </c>
+      <c r="H8" s="162">
+        <f>(C8*5+D8*4+E8*3+F8*2+G8*1)/40</f>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="143">
+        <v>16</v>
+      </c>
+      <c r="D9" s="143">
+        <v>12</v>
+      </c>
+      <c r="E9" s="143">
+        <v>7</v>
+      </c>
+      <c r="F9" s="143">
+        <v>4</v>
+      </c>
+      <c r="G9" s="143">
+        <v>1</v>
+      </c>
+      <c r="H9" s="162">
+        <f>(C9*5+D9*4+E9*3+F9*2+G9*1)/40</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="143">
+        <v>15</v>
+      </c>
+      <c r="D10" s="143">
+        <v>10</v>
+      </c>
+      <c r="E10" s="143">
+        <v>14</v>
+      </c>
+      <c r="F10" s="143">
+        <v>0</v>
+      </c>
+      <c r="G10" s="143">
+        <v>1</v>
+      </c>
+      <c r="H10" s="162">
+        <f>(C10*5+D10*4+E10*3+F10*2+G10*1)/40</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="144" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="143">
+        <v>13</v>
+      </c>
+      <c r="D11" s="143">
+        <v>12</v>
+      </c>
+      <c r="E11" s="143">
+        <v>8</v>
+      </c>
+      <c r="F11" s="143">
+        <v>6</v>
+      </c>
+      <c r="G11" s="143">
+        <v>1</v>
+      </c>
+      <c r="H11" s="162">
+        <f>(C11*5+D11*4+E11*3+F11*2+G11*1)/40</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="149" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="162">
+        <f>SUM(H13:H16)/4</f>
+        <v>3.5687499999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="144" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="143">
+        <v>14</v>
+      </c>
+      <c r="D13" s="143">
+        <v>15</v>
+      </c>
+      <c r="E13" s="143">
+        <v>6</v>
+      </c>
+      <c r="F13" s="143">
+        <v>4</v>
+      </c>
+      <c r="G13" s="143">
+        <v>1</v>
+      </c>
+      <c r="H13" s="162">
+        <f>(C13*5+D13*4+E13*3+F13*2+G13*1)/40</f>
+        <v>3.9249999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="143">
+        <v>9</v>
+      </c>
+      <c r="D14" s="143">
+        <v>5</v>
+      </c>
+      <c r="E14" s="143">
+        <v>12</v>
+      </c>
+      <c r="F14" s="143">
+        <v>10</v>
+      </c>
+      <c r="G14" s="143">
+        <v>4</v>
+      </c>
+      <c r="H14" s="162">
+        <f t="shared" ref="H14:H16" si="0">(C14*5+D14*4+E14*3+F14*2+G14*1)/40</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="143">
+        <v>12</v>
+      </c>
+      <c r="D15" s="143">
+        <v>7</v>
+      </c>
+      <c r="E15" s="143">
+        <v>12</v>
+      </c>
+      <c r="F15" s="143">
+        <v>8</v>
+      </c>
+      <c r="G15" s="143">
+        <v>1</v>
+      </c>
+      <c r="H15" s="162">
+        <f t="shared" si="0"/>
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="143">
+        <v>15</v>
+      </c>
+      <c r="D16" s="143">
+        <v>10</v>
+      </c>
+      <c r="E16" s="143">
+        <v>4</v>
+      </c>
+      <c r="F16" s="143">
+        <v>10</v>
+      </c>
+      <c r="G16" s="143">
+        <v>1</v>
+      </c>
+      <c r="H16" s="162">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="162">
+        <f>SUM(H18:H21)/4</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="144" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="143">
+        <v>10</v>
+      </c>
+      <c r="D18" s="143">
+        <v>10</v>
+      </c>
+      <c r="E18" s="143">
+        <v>8</v>
+      </c>
+      <c r="F18" s="143">
+        <v>8</v>
+      </c>
+      <c r="G18" s="143">
+        <v>4</v>
+      </c>
+      <c r="H18" s="162">
+        <f>(C18*5+D18*4+E18*3+F18*2+G18)/40</f>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="144" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="143">
+        <v>12</v>
+      </c>
+      <c r="D19" s="143">
+        <v>10</v>
+      </c>
+      <c r="E19" s="143">
+        <v>8</v>
+      </c>
+      <c r="F19" s="143">
+        <v>9</v>
+      </c>
+      <c r="G19" s="143">
+        <v>1</v>
+      </c>
+      <c r="H19" s="162">
+        <f>(C19*5+D19*4+E19*3+F19*2+G19)/40</f>
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="143">
+        <v>12</v>
+      </c>
+      <c r="D20" s="143">
+        <v>10</v>
+      </c>
+      <c r="E20" s="143">
+        <v>7</v>
+      </c>
+      <c r="F20" s="143">
+        <v>9</v>
+      </c>
+      <c r="G20" s="143">
+        <v>2</v>
+      </c>
+      <c r="H20" s="162">
+        <f>(C20*5+D20*4+E20*3+F20*2+G20)/40</f>
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="143">
+        <v>10</v>
+      </c>
+      <c r="D21" s="143">
+        <v>12</v>
+      </c>
+      <c r="E21" s="143">
+        <v>9</v>
+      </c>
+      <c r="F21" s="143">
+        <v>8</v>
+      </c>
+      <c r="G21" s="143">
+        <v>1</v>
+      </c>
+      <c r="H21" s="162">
+        <f>(C21*5+D21*4+E21*3+F21*2+G21)/40</f>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="149" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="162">
+        <f>SUM(H23:H28)/6</f>
+        <v>3.7416666666666671</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="143">
+        <v>15</v>
+      </c>
+      <c r="D23" s="143">
+        <v>17</v>
+      </c>
+      <c r="E23" s="143">
+        <v>6</v>
+      </c>
+      <c r="F23" s="143">
+        <v>1</v>
+      </c>
+      <c r="G23" s="143">
+        <v>1</v>
+      </c>
+      <c r="H23" s="162">
+        <f>(C23*5+D23*4+E23*3+F23*2+G23*1)/40</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="144" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="143">
+        <v>14</v>
+      </c>
+      <c r="D24" s="143">
+        <v>13</v>
+      </c>
+      <c r="E24" s="143">
+        <v>10</v>
+      </c>
+      <c r="F24" s="143">
+        <v>3</v>
+      </c>
+      <c r="G24" s="143">
+        <v>0</v>
+      </c>
+      <c r="H24" s="162">
+        <f>(C24*5+D24*4+E24*3+F24*2+G24*1)/40</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="144" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="143">
+        <v>10</v>
+      </c>
+      <c r="D25" s="143">
+        <v>8</v>
+      </c>
+      <c r="E25" s="143">
+        <v>10</v>
+      </c>
+      <c r="F25" s="143">
+        <v>7</v>
+      </c>
+      <c r="G25" s="143">
+        <v>5</v>
+      </c>
+      <c r="H25" s="162">
+        <f>(C25*5+D25*4+E25*3+F25*2+G25*1)/40</f>
+        <v>3.2749999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="144" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="143">
+        <v>16</v>
+      </c>
+      <c r="D26" s="143">
+        <v>12</v>
+      </c>
+      <c r="E26" s="143">
+        <v>7</v>
+      </c>
+      <c r="F26" s="143">
+        <v>5</v>
+      </c>
+      <c r="G26" s="143">
+        <v>0</v>
+      </c>
+      <c r="H26" s="162">
+        <f t="shared" ref="H26:H28" si="1">(C26*5+D26*4+E26*3+F26*2+G26*1)/40</f>
+        <v>3.9750000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="143">
+        <v>10</v>
+      </c>
+      <c r="D27" s="143">
+        <v>8</v>
+      </c>
+      <c r="E27" s="143">
+        <v>14</v>
+      </c>
+      <c r="F27" s="143">
+        <v>7</v>
+      </c>
+      <c r="G27" s="143">
+        <v>1</v>
+      </c>
+      <c r="H27" s="162">
+        <f t="shared" si="1"/>
+        <v>3.4750000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="143">
+        <v>11</v>
+      </c>
+      <c r="D28" s="143">
+        <v>12</v>
+      </c>
+      <c r="E28" s="143">
+        <v>11</v>
+      </c>
+      <c r="F28" s="143">
+        <v>5</v>
+      </c>
+      <c r="G28" s="143">
+        <v>1</v>
+      </c>
+      <c r="H28" s="162">
+        <f t="shared" si="1"/>
+        <v>3.6749999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="162">
+        <f>SUM(H30:H31)/2</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="143">
+        <v>6</v>
+      </c>
+      <c r="D30" s="143">
+        <v>6</v>
+      </c>
+      <c r="E30" s="143">
+        <v>14</v>
+      </c>
+      <c r="F30" s="143">
+        <v>12</v>
+      </c>
+      <c r="G30" s="143">
+        <v>2</v>
+      </c>
+      <c r="H30" s="162">
+        <f>(C30*5+D30*4+E30*3+F30*2+G30)/40</f>
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="143">
+        <v>11</v>
+      </c>
+      <c r="D31" s="143">
+        <v>10</v>
+      </c>
+      <c r="E31" s="143">
+        <v>8</v>
+      </c>
+      <c r="F31" s="143">
+        <v>8</v>
+      </c>
+      <c r="G31" s="143">
+        <v>3</v>
+      </c>
+      <c r="H31" s="162">
+        <f>(C31*5+D31*4+E31*3+F31*2+G31)/40</f>
+        <v>3.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H12" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="12.625"/>
+    <col min="3" max="3" width="9.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="3:9">
-      <c r="C1" s="35"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" customFormat="1" ht="16.5" spans="3:9">
-      <c r="C2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" customFormat="1" ht="22" customHeight="1" spans="3:9">
-      <c r="C3" s="66" t="s">
+    <row r="3" spans="3:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="34" customFormat="1" ht="39" customHeight="1" spans="3:9">
-      <c r="C4" s="69" t="s">
+    <row r="4" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C5" s="71"/>
-      <c r="D5" s="50" t="s">
+    <row r="5" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="112"/>
+      <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="46">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C6" s="72"/>
-      <c r="D6" s="73" t="s">
+    <row r="6" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="113"/>
+      <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="39">
         <v>0.2</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="39">
         <v>0.22</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="39">
         <v>0.24</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="34" customFormat="1" ht="40" customHeight="1" spans="3:9">
-      <c r="C7" s="49" t="s">
+    <row r="7" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="40">
         <v>0.2</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="40">
         <v>0.15</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="40">
         <v>0.1</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="46">
         <v>40</v>
       </c>
     </row>
-    <row r="8" s="34" customFormat="1" ht="40" customHeight="1" spans="3:9">
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+    <row r="8" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="99"/>
+      <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="36">
         <v>6</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="36">
         <v>5</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="36">
         <v>4.5</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="46">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="34" customFormat="1" ht="44" customHeight="1" spans="3:9">
-      <c r="C9" s="78"/>
-      <c r="D9" s="79" t="s">
+    <row r="9" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="100"/>
+      <c r="D9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="44">
         <v>0.15</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="44">
         <v>0.1</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="44">
         <v>0.75</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="47">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="14:14">
+    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N19">
         <f>10/90</f>
-        <v>0.111111111111111</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -3730,281 +4007,272 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:I15"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="3:9">
-      <c r="C1" s="35"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" customFormat="1" ht="16.5" spans="3:9">
-      <c r="C2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" customFormat="1" ht="16.5" spans="3:9">
-      <c r="C3" s="37" t="s">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="60"/>
-    </row>
-    <row r="4" s="33" customFormat="1" ht="34" customHeight="1" spans="3:9">
-      <c r="C4" s="39" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+    </row>
+    <row r="4" spans="3:9" s="13" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="61"/>
-    </row>
-    <row r="5" s="33" customFormat="1" ht="26" customHeight="1" spans="3:9">
-      <c r="C5" s="45" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
+    </row>
+    <row r="5" spans="3:9" s="13" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="62"/>
-    </row>
-    <row r="6" customFormat="1" ht="22" customHeight="1" spans="3:9">
-      <c r="C6" s="47" t="s">
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
+    </row>
+    <row r="6" spans="3:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" s="34" customFormat="1" ht="39" customHeight="1" spans="3:9">
-      <c r="C7" s="49" t="s">
+    <row r="7" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="26">
         <v>5</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="8" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+    <row r="8" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="99"/>
+      <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="27">
         <v>10</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="9" s="34" customFormat="1" ht="33" customHeight="1" spans="3:9">
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+    <row r="9" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="99"/>
+      <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="54">
-        <v>0.241</v>
-      </c>
-      <c r="G9" s="55" t="s">
+      <c r="F9" s="28">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="27">
         <v>5</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="10" s="34" customFormat="1" ht="40" customHeight="1" spans="3:9">
-      <c r="C10" s="49" t="s">
+    <row r="10" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="54">
-        <v>0.14</v>
-      </c>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="27">
         <v>25</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="34" customFormat="1" ht="44" customHeight="1" spans="3:9">
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
+    <row r="11" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="99"/>
+      <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="50">
-        <v>5.1</v>
-      </c>
-      <c r="G11" s="55" t="s">
+      <c r="F11" s="24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="27">
         <v>25</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="12" s="34" customFormat="1" ht="45" customHeight="1" spans="3:9">
-      <c r="C12" s="56" t="s">
+    <row r="12" spans="3:9" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="24">
         <v>4</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="27">
         <v>6</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="13" s="34" customFormat="1" ht="28" customHeight="1" spans="3:9">
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="50" t="s">
+    <row r="13" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="99"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="28">
         <v>0.84</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="27">
         <v>9</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="31">
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" s="34" customFormat="1" ht="28" customHeight="1" spans="3:9">
-      <c r="C14" s="56"/>
-      <c r="D14" s="50" t="s">
+    <row r="14" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="99"/>
+      <c r="D14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="24">
         <v>83</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="27">
         <v>15</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="31">
         <v>12</v>
       </c>
     </row>
-    <row r="15" s="34" customFormat="1" ht="34" customHeight="1" spans="3:9">
-      <c r="C15" s="58" t="s">
+    <row r="15" spans="3:9" s="14" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="65">
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="32">
         <f>SUM(I7:I14)</f>
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -4018,34 +4286,32 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:D13"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="35.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1"/>
-    <row r="2" ht="12"/>
-    <row r="3" ht="30" customHeight="1" spans="3:7">
+    <row r="1" spans="3:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>64</v>
       </c>
@@ -4062,377 +4328,397 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C4" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="135">
         <v>8</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="138">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="3:7">
-      <c r="C5" s="12"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" ht="29" customHeight="1" spans="3:7">
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+    <row r="5" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="128"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="139"/>
+    </row>
+    <row r="6" spans="3:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="128"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" ht="26" customHeight="1" spans="3:7">
-      <c r="C7" s="12"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="F6" s="136"/>
+      <c r="G6" s="139"/>
+    </row>
+    <row r="7" spans="3:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="128"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="12"/>
-      <c r="D8" s="8" t="s">
+      <c r="F7" s="137"/>
+      <c r="G7" s="140"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="128"/>
+      <c r="D8" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="135">
         <v>7</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="138">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:7">
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="3:7">
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+    <row r="9" spans="3:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="128"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="139"/>
+    </row>
+    <row r="10" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="128"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="3:7">
-      <c r="C11" s="12"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="F10" s="136"/>
+      <c r="G10" s="139"/>
+    </row>
+    <row r="11" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="128"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" ht="28" customHeight="1" spans="3:7">
-      <c r="C12" s="12"/>
-      <c r="D12" s="8" t="s">
+      <c r="F11" s="137"/>
+      <c r="G11" s="140"/>
+    </row>
+    <row r="12" spans="3:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="128"/>
+      <c r="D12" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="135">
         <v>8</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="138">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="25" customHeight="1" spans="3:7">
-      <c r="C13" s="12"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="9" t="s">
+    <row r="13" spans="3:7" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="128"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" ht="26" customHeight="1" spans="3:7">
-      <c r="C14" s="12"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="9" t="s">
+      <c r="F13" s="136"/>
+      <c r="G13" s="139"/>
+    </row>
+    <row r="14" spans="3:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="128"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" ht="35" customHeight="1" spans="3:7">
-      <c r="C15" s="7" t="s">
+      <c r="F14" s="137"/>
+      <c r="G14" s="140"/>
+    </row>
+    <row r="15" spans="3:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="135">
         <v>8</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="138">
         <v>8</v>
       </c>
     </row>
-    <row r="16" ht="33.75" spans="3:7">
-      <c r="C16" s="12"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
+    <row r="16" spans="3:7" ht="26" x14ac:dyDescent="0.15">
+      <c r="C16" s="128"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" ht="31" customHeight="1" spans="3:7">
-      <c r="C17" s="12"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20" t="s">
+      <c r="F16" s="136"/>
+      <c r="G16" s="139"/>
+    </row>
+    <row r="17" spans="3:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="128"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" ht="22.5" spans="3:7">
-      <c r="C18" s="12"/>
-      <c r="D18" s="19" t="s">
+      <c r="F17" s="137"/>
+      <c r="G17" s="140"/>
+    </row>
+    <row r="18" spans="3:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="C18" s="128"/>
+      <c r="D18" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="135">
         <v>8</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="138">
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="36" customHeight="1" spans="3:7">
-      <c r="C19" s="12"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22" t="s">
+    <row r="19" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="128"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" ht="33" customHeight="1" spans="3:7">
-      <c r="C20" s="12"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20" t="s">
+      <c r="F19" s="136"/>
+      <c r="G19" s="139"/>
+    </row>
+    <row r="20" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="128"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" ht="27" customHeight="1" spans="3:7">
-      <c r="C21" s="12"/>
-      <c r="D21" s="19" t="s">
+      <c r="F20" s="137"/>
+      <c r="G20" s="140"/>
+    </row>
+    <row r="21" spans="3:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="128"/>
+      <c r="D21" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="135">
         <v>8</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="138">
         <v>7</v>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1" spans="3:7">
-      <c r="C22" s="12"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20" t="s">
+    <row r="22" spans="3:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="128"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" ht="32" customHeight="1" spans="3:7">
-      <c r="C23" s="12"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
+      <c r="F22" s="136"/>
+      <c r="G22" s="139"/>
+    </row>
+    <row r="23" spans="3:9" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="128"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" ht="26" customHeight="1" spans="3:7">
-      <c r="C24" s="12"/>
-      <c r="D24" s="19" t="s">
+      <c r="F23" s="137"/>
+      <c r="G23" s="140"/>
+    </row>
+    <row r="24" spans="3:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="128"/>
+      <c r="D24" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="135">
         <v>8</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="138">
         <v>8</v>
       </c>
     </row>
-    <row r="25" ht="32" customHeight="1" spans="3:7">
-      <c r="C25" s="12"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="23" t="s">
+    <row r="25" spans="3:9" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="128"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" ht="22.5" spans="3:7">
-      <c r="C26" s="12"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23" t="s">
+      <c r="F25" s="136"/>
+      <c r="G25" s="139"/>
+    </row>
+    <row r="26" spans="3:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="C26" s="128"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="3:7">
-      <c r="C27" s="24" t="s">
+      <c r="F26" s="137"/>
+      <c r="G26" s="140"/>
+    </row>
+    <row r="27" spans="3:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="135">
         <v>8</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="138">
         <v>8</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="3:7">
-      <c r="C28" s="25"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23" t="s">
+    <row r="28" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="130"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" ht="25" customHeight="1" spans="3:9">
-      <c r="C29" s="25"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23" t="s">
+      <c r="F28" s="136"/>
+      <c r="G28" s="139"/>
+    </row>
+    <row r="29" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="130"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="140"/>
       <c r="I29" s="1">
         <f>75.4*0.8+77*0.2</f>
-        <v>75.72</v>
-      </c>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="3:7">
-      <c r="C30" s="25"/>
-      <c r="D30" s="19" t="s">
+        <v>75.720000000000013</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="130"/>
+      <c r="D30" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="135">
         <v>8</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="138">
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="22.5" spans="3:7">
-      <c r="C31" s="25"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23" t="s">
+    <row r="31" spans="3:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="C31" s="130"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="25"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23" t="s">
+      <c r="F31" s="136"/>
+      <c r="G31" s="139"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C32" s="130"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" ht="22.5" spans="3:7">
-      <c r="C33" s="25"/>
-      <c r="D33" s="26" t="s">
+      <c r="F32" s="137"/>
+      <c r="G32" s="140"/>
+    </row>
+    <row r="33" spans="3:7" ht="26" x14ac:dyDescent="0.15">
+      <c r="C33" s="130"/>
+      <c r="D33" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="135">
         <v>7</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="138">
         <v>8</v>
       </c>
     </row>
-    <row r="34" ht="22.5" spans="3:7">
-      <c r="C34" s="25"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23" t="s">
+    <row r="34" spans="3:7" ht="26" x14ac:dyDescent="0.15">
+      <c r="C34" s="130"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" ht="22.5" spans="3:7">
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23" t="s">
+      <c r="F34" s="136"/>
+      <c r="G34" s="139"/>
+    </row>
+    <row r="35" spans="3:7" ht="26" x14ac:dyDescent="0.15">
+      <c r="C35" s="130"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" ht="21" customHeight="1" spans="3:7">
-      <c r="C36" s="28" t="s">
+      <c r="F35" s="137"/>
+      <c r="G35" s="140"/>
+    </row>
+    <row r="36" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31">
+      <c r="D36" s="126"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="11">
         <f>SUM(F4:F35)</f>
         <v>78</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="12">
         <f>SUM(G4:G35)</f>
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C4:C14"/>
     <mergeCell ref="C15:C26"/>
@@ -4449,28 +4735,8 @@
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/MBA/绩效目标.xlsx
+++ b/MBA/绩效目标.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="部门绩效目标" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="开发考核指标" sheetId="6" r:id="rId7"/>
     <sheet name="项目经理考核表" sheetId="7" r:id="rId8"/>
     <sheet name="项目经理考核表-态度部分" sheetId="8" r:id="rId9"/>
+    <sheet name="工作表1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="155">
   <si>
     <t>维度</t>
   </si>
@@ -497,17 +498,98 @@
   </si>
   <si>
     <t xml:space="preserve"> 21、我在绩效反馈中提的意见公司会很快的在后续流程中进行改进</t>
+  </si>
+  <si>
+    <t>绩效计划</t>
+    <rPh sb="0" eb="1">
+      <t>ji'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效实施</t>
+    <rPh sb="0" eb="1">
+      <t>ji'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'shi</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效反馈</t>
+    <rPh sb="0" eb="1">
+      <t>ji'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'k</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效考核</t>
+    <rPh sb="0" eb="1">
+      <t>ji'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kao'he</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效结果的应用</t>
+    <rPh sb="0" eb="1">
+      <t>ji'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying'y</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <rPh sb="0" eb="1">
+      <t>zong'f</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            调查维度
+调查时间</t>
+    <rPh sb="12" eb="13">
+      <t>diao'c</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei'du</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>diao'c</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,6 +602,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -527,12 +610,14 @@
       <sz val="10"/>
       <color rgb="FF404040"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF404040"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -540,6 +625,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -547,6 +633,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -554,6 +641,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -561,6 +649,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -568,12 +657,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -605,6 +696,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -614,7 +740,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1365,11 +1491,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1414,7 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,7 +1597,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,16 +1654,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,6 +1781,46 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,21 +1839,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1668,13 +1854,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1689,12 +1881,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1710,6 +1896,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1737,6 +1956,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1767,91 +2004,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1861,6 +2067,1017 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>软件公司研发部门绩效管理满意度调查统计结果对比图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016年12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$D$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>绩效计划</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>绩效实施</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>绩效考核</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>绩效反馈</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>绩效结果的应用</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>总分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00_ ">
+                  <c:v>3.220952380952381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017年7月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$D$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>绩效计划</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>绩效实施</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>绩效考核</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>绩效反馈</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>绩效结果的应用</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>总分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00_ ">
+                  <c:v>3.646190476190476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-864631232"/>
+        <c:axId val="-864902784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-864631232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-864902784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-864902784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-864631232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2149,7 +3366,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="102" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="81" t="s">
@@ -2163,7 +3380,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="89"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="81" t="s">
         <v>6</v>
       </c>
@@ -2175,7 +3392,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="90"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="84" t="s">
         <v>7</v>
       </c>
@@ -2187,10 +3404,10 @@
       </c>
     </row>
     <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="107" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="82" t="s">
@@ -2201,8 +3418,8 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="82" t="s">
         <v>11</v>
       </c>
@@ -2211,8 +3428,8 @@
       </c>
     </row>
     <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="91"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="82" t="s">
         <v>12</v>
       </c>
@@ -2221,44 +3438,44 @@
       </c>
     </row>
     <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="99" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="85"/>
     </row>
     <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="89"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="85"/>
     </row>
     <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="89"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="94"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="85"/>
     </row>
     <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="89"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="95"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="85"/>
     </row>
     <row r="14" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="89"/>
-      <c r="D14" s="96"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="82" t="s">
         <v>19</v>
       </c>
@@ -2267,8 +3484,8 @@
       </c>
     </row>
     <row r="15" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="90"/>
-      <c r="D15" s="97"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="82" t="s">
         <v>20</v>
       </c>
@@ -2277,7 +3494,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="105" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="82" t="s">
@@ -2291,7 +3508,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="91"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="82" t="s">
         <v>23</v>
       </c>
@@ -2299,7 +3516,7 @@
       <c r="F17" s="85"/>
     </row>
     <row r="18" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="92"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="86" t="s">
         <v>24</v>
       </c>
@@ -2322,6 +3539,115 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.1640625" style="163" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="96" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="170" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="171" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="171" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="171" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="171" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="172" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="3:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="164">
+        <v>42705</v>
+      </c>
+      <c r="D4" s="165">
+        <v>3.1</v>
+      </c>
+      <c r="E4" s="165">
+        <v>3.24</v>
+      </c>
+      <c r="F4" s="165">
+        <v>2.89</v>
+      </c>
+      <c r="G4" s="165">
+        <v>3.63</v>
+      </c>
+      <c r="H4" s="165">
+        <v>2.92</v>
+      </c>
+      <c r="I4" s="166">
+        <f>(D4*5+E4*4+F4*4+G4*6+H4*2)/21</f>
+        <v>3.2209523809523808</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="167">
+        <v>42917</v>
+      </c>
+      <c r="D5" s="168">
+        <v>3.87</v>
+      </c>
+      <c r="E5" s="168">
+        <v>3.57</v>
+      </c>
+      <c r="F5" s="168">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="168">
+        <v>3.74</v>
+      </c>
+      <c r="H5" s="168">
+        <v>3.25</v>
+      </c>
+      <c r="I5" s="169">
+        <f>(D5*5+E5*4+F5*4+G5*6+H5*2)/21</f>
+        <v>3.6461904761904766</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="173"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="175"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2356,7 +3682,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -2370,7 +3696,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="99"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
@@ -2382,7 +3708,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="99"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +3720,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -2408,7 +3734,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="99"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="76" t="s">
         <v>11</v>
       </c>
@@ -2420,27 +3746,27 @@
       </c>
     </row>
     <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="110" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="112" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="75"/>
     </row>
     <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="99"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="110" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="74" t="s">
@@ -2452,7 +3778,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="100"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="77" t="s">
         <v>24</v>
       </c>
@@ -2505,7 +3831,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -2519,7 +3845,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="99"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
@@ -2531,7 +3857,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="99"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
@@ -2543,7 +3869,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -2557,8 +3883,8 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="99"/>
-      <c r="D8" s="93" t="s">
+      <c r="C8" s="110"/>
+      <c r="D8" s="107" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="74" t="s">
@@ -2569,8 +3895,8 @@
       </c>
     </row>
     <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="99"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="74" t="s">
         <v>28</v>
       </c>
@@ -2579,43 +3905,43 @@
       </c>
     </row>
     <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="110" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="113" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="99"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="75"/>
     </row>
     <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="110" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="107" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="75"/>
     </row>
     <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="100"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="78"/>
     </row>
   </sheetData>
@@ -2675,7 +4001,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="118" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="53" t="s">
@@ -2698,7 +4024,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C9" s="105"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="53" t="s">
         <v>6</v>
       </c>
@@ -2719,7 +4045,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C10" s="105"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="56" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +4066,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="118" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="59" t="s">
@@ -2763,39 +4089,39 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="105"/>
-      <c r="D12" s="107" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="116">
         <v>6</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="116">
         <v>5</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="116">
         <v>4.5</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="117">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C13" s="105"/>
-      <c r="D13" s="107"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="110"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="117"/>
     </row>
     <row r="14" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C14" s="105"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="53" t="s">
         <v>12</v>
       </c>
@@ -2816,7 +4142,7 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="53" t="s">
@@ -2839,7 +4165,7 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C16" s="105"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="53" t="s">
         <v>20</v>
       </c>
@@ -2860,10 +4186,10 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="121" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="54" t="s">
@@ -2883,8 +4209,8 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C18" s="106"/>
-      <c r="D18" s="108"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="57" t="s">
         <v>49</v>
       </c>
@@ -2902,7 +4228,7 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C19" s="106"/>
+      <c r="C19" s="119"/>
       <c r="D19" s="63" t="s">
         <v>24</v>
       </c>
@@ -2924,16 +4250,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2981,7 +4307,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="122" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -3004,7 +4330,7 @@
       </c>
     </row>
     <row r="5" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="112"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
@@ -3025,7 +4351,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="113"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
@@ -3046,7 +4372,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -3069,7 +4395,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="99"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
@@ -3090,10 +4416,10 @@
       </c>
     </row>
     <row r="9" spans="3:9" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="125" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -3113,8 +4439,8 @@
       </c>
     </row>
     <row r="10" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="111"/>
-      <c r="D10" s="115"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="38" t="s">
         <v>49</v>
       </c>
@@ -3132,7 +4458,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" s="14" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="100"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -3168,643 +4494,643 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="11.5" style="158" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="88" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="159" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="97" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="156"/>
-      <c r="C4" s="142" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="142" t="s">
+      <c r="G4" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="160"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="157"/>
-      <c r="C5" s="143" t="s">
+      <c r="B5" s="137"/>
+      <c r="C5" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="161"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="162">
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="98">
         <f>SUM(H7:H11)/5</f>
         <v>3.87</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C7" s="90">
         <v>14</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="90">
         <v>10</v>
       </c>
-      <c r="E7" s="143">
+      <c r="E7" s="90">
         <v>12</v>
       </c>
-      <c r="F7" s="143">
+      <c r="F7" s="90">
         <v>4</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="90">
         <v>0</v>
       </c>
-      <c r="H7" s="162">
+      <c r="H7" s="98">
         <f>(C7*5+D7*4+E7*3+F7*2+G7*1)/40</f>
         <v>3.85</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="143">
+      <c r="C8" s="90">
         <v>14</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="90">
         <v>12</v>
       </c>
-      <c r="E8" s="143">
+      <c r="E8" s="90">
         <v>8</v>
       </c>
-      <c r="F8" s="143">
+      <c r="F8" s="90">
         <v>6</v>
       </c>
-      <c r="G8" s="143">
+      <c r="G8" s="90">
         <v>0</v>
       </c>
-      <c r="H8" s="162">
+      <c r="H8" s="98">
         <f>(C8*5+D8*4+E8*3+F8*2+G8*1)/40</f>
         <v>3.85</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="143">
+      <c r="C9" s="90">
         <v>16</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="90">
         <v>12</v>
       </c>
-      <c r="E9" s="143">
+      <c r="E9" s="90">
         <v>7</v>
       </c>
-      <c r="F9" s="143">
+      <c r="F9" s="90">
         <v>4</v>
       </c>
-      <c r="G9" s="143">
+      <c r="G9" s="90">
         <v>1</v>
       </c>
-      <c r="H9" s="162">
+      <c r="H9" s="98">
         <f>(C9*5+D9*4+E9*3+F9*2+G9*1)/40</f>
         <v>3.95</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="143">
+      <c r="C10" s="90">
         <v>15</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="90">
         <v>10</v>
       </c>
-      <c r="E10" s="143">
+      <c r="E10" s="90">
         <v>14</v>
       </c>
-      <c r="F10" s="143">
+      <c r="F10" s="90">
         <v>0</v>
       </c>
-      <c r="G10" s="143">
+      <c r="G10" s="90">
         <v>1</v>
       </c>
-      <c r="H10" s="162">
+      <c r="H10" s="98">
         <f>(C10*5+D10*4+E10*3+F10*2+G10*1)/40</f>
         <v>3.95</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="143">
+      <c r="C11" s="90">
         <v>13</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="90">
         <v>12</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="90">
         <v>8</v>
       </c>
-      <c r="F11" s="143">
+      <c r="F11" s="90">
         <v>6</v>
       </c>
-      <c r="G11" s="143">
+      <c r="G11" s="90">
         <v>1</v>
       </c>
-      <c r="H11" s="162">
+      <c r="H11" s="98">
         <f>(C11*5+D11*4+E11*3+F11*2+G11*1)/40</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="162">
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="98">
         <f>SUM(H13:H16)/4</f>
         <v>3.5687499999999996</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="143">
+      <c r="C13" s="90">
         <v>14</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="90">
         <v>15</v>
       </c>
-      <c r="E13" s="143">
+      <c r="E13" s="90">
         <v>6</v>
       </c>
-      <c r="F13" s="143">
+      <c r="F13" s="90">
         <v>4</v>
       </c>
-      <c r="G13" s="143">
+      <c r="G13" s="90">
         <v>1</v>
       </c>
-      <c r="H13" s="162">
+      <c r="H13" s="98">
         <f>(C13*5+D13*4+E13*3+F13*2+G13*1)/40</f>
         <v>3.9249999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="143">
+      <c r="C14" s="90">
         <v>9</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="90">
         <v>5</v>
       </c>
-      <c r="E14" s="143">
+      <c r="E14" s="90">
         <v>12</v>
       </c>
-      <c r="F14" s="143">
+      <c r="F14" s="90">
         <v>10</v>
       </c>
-      <c r="G14" s="143">
+      <c r="G14" s="90">
         <v>4</v>
       </c>
-      <c r="H14" s="162">
+      <c r="H14" s="98">
         <f t="shared" ref="H14:H16" si="0">(C14*5+D14*4+E14*3+F14*2+G14*1)/40</f>
         <v>3.125</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="143">
+      <c r="C15" s="90">
         <v>12</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="90">
         <v>7</v>
       </c>
-      <c r="E15" s="143">
+      <c r="E15" s="90">
         <v>12</v>
       </c>
-      <c r="F15" s="143">
+      <c r="F15" s="90">
         <v>8</v>
       </c>
-      <c r="G15" s="143">
+      <c r="G15" s="90">
         <v>1</v>
       </c>
-      <c r="H15" s="162">
+      <c r="H15" s="98">
         <f t="shared" si="0"/>
         <v>3.5249999999999999</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="143">
+      <c r="C16" s="90">
         <v>15</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="90">
         <v>10</v>
       </c>
-      <c r="E16" s="143">
+      <c r="E16" s="90">
         <v>4</v>
       </c>
-      <c r="F16" s="143">
+      <c r="F16" s="90">
         <v>10</v>
       </c>
-      <c r="G16" s="143">
+      <c r="G16" s="90">
         <v>1</v>
       </c>
-      <c r="H16" s="162">
+      <c r="H16" s="98">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="162">
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="98">
         <f>SUM(H18:H21)/4</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="143">
+      <c r="C18" s="90">
         <v>10</v>
       </c>
-      <c r="D18" s="143">
+      <c r="D18" s="90">
         <v>10</v>
       </c>
-      <c r="E18" s="143">
+      <c r="E18" s="90">
         <v>8</v>
       </c>
-      <c r="F18" s="143">
+      <c r="F18" s="90">
         <v>8</v>
       </c>
-      <c r="G18" s="143">
+      <c r="G18" s="90">
         <v>4</v>
       </c>
-      <c r="H18" s="162">
+      <c r="H18" s="98">
         <f>(C18*5+D18*4+E18*3+F18*2+G18)/40</f>
         <v>3.35</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="143">
+      <c r="C19" s="90">
         <v>12</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="90">
         <v>10</v>
       </c>
-      <c r="E19" s="143">
+      <c r="E19" s="90">
         <v>8</v>
       </c>
-      <c r="F19" s="143">
+      <c r="F19" s="90">
         <v>9</v>
       </c>
-      <c r="G19" s="143">
+      <c r="G19" s="90">
         <v>1</v>
       </c>
-      <c r="H19" s="162">
+      <c r="H19" s="98">
         <f>(C19*5+D19*4+E19*3+F19*2+G19)/40</f>
         <v>3.5750000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="143">
+      <c r="C20" s="90">
         <v>12</v>
       </c>
-      <c r="D20" s="143">
+      <c r="D20" s="90">
         <v>10</v>
       </c>
-      <c r="E20" s="143">
+      <c r="E20" s="90">
         <v>7</v>
       </c>
-      <c r="F20" s="143">
+      <c r="F20" s="90">
         <v>9</v>
       </c>
-      <c r="G20" s="143">
+      <c r="G20" s="90">
         <v>2</v>
       </c>
-      <c r="H20" s="162">
+      <c r="H20" s="98">
         <f>(C20*5+D20*4+E20*3+F20*2+G20)/40</f>
         <v>3.5249999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="143">
+      <c r="C21" s="90">
         <v>10</v>
       </c>
-      <c r="D21" s="143">
+      <c r="D21" s="90">
         <v>12</v>
       </c>
-      <c r="E21" s="143">
+      <c r="E21" s="90">
         <v>9</v>
       </c>
-      <c r="F21" s="143">
+      <c r="F21" s="90">
         <v>8</v>
       </c>
-      <c r="G21" s="143">
+      <c r="G21" s="90">
         <v>1</v>
       </c>
-      <c r="H21" s="162">
+      <c r="H21" s="98">
         <f>(C21*5+D21*4+E21*3+F21*2+G21)/40</f>
         <v>3.55</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="149" t="s">
+      <c r="B22" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="162">
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="98">
         <f>SUM(H23:H28)/6</f>
         <v>3.7416666666666671</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="143">
+      <c r="C23" s="90">
         <v>15</v>
       </c>
-      <c r="D23" s="143">
+      <c r="D23" s="90">
         <v>17</v>
       </c>
-      <c r="E23" s="143">
+      <c r="E23" s="90">
         <v>6</v>
       </c>
-      <c r="F23" s="143">
+      <c r="F23" s="90">
         <v>1</v>
       </c>
-      <c r="G23" s="143">
+      <c r="G23" s="90">
         <v>1</v>
       </c>
-      <c r="H23" s="162">
+      <c r="H23" s="98">
         <f>(C23*5+D23*4+E23*3+F23*2+G23*1)/40</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="99" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="143">
+      <c r="C24" s="90">
         <v>14</v>
       </c>
-      <c r="D24" s="143">
+      <c r="D24" s="90">
         <v>13</v>
       </c>
-      <c r="E24" s="143">
+      <c r="E24" s="90">
         <v>10</v>
       </c>
-      <c r="F24" s="143">
+      <c r="F24" s="90">
         <v>3</v>
       </c>
-      <c r="G24" s="143">
+      <c r="G24" s="90">
         <v>0</v>
       </c>
-      <c r="H24" s="162">
+      <c r="H24" s="98">
         <f>(C24*5+D24*4+E24*3+F24*2+G24*1)/40</f>
         <v>3.95</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="143">
+      <c r="C25" s="90">
         <v>10</v>
       </c>
-      <c r="D25" s="143">
+      <c r="D25" s="90">
         <v>8</v>
       </c>
-      <c r="E25" s="143">
+      <c r="E25" s="90">
         <v>10</v>
       </c>
-      <c r="F25" s="143">
+      <c r="F25" s="90">
         <v>7</v>
       </c>
-      <c r="G25" s="143">
+      <c r="G25" s="90">
         <v>5</v>
       </c>
-      <c r="H25" s="162">
+      <c r="H25" s="98">
         <f>(C25*5+D25*4+E25*3+F25*2+G25*1)/40</f>
         <v>3.2749999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="143">
+      <c r="C26" s="90">
         <v>16</v>
       </c>
-      <c r="D26" s="143">
+      <c r="D26" s="90">
         <v>12</v>
       </c>
-      <c r="E26" s="143">
+      <c r="E26" s="90">
         <v>7</v>
       </c>
-      <c r="F26" s="143">
+      <c r="F26" s="90">
         <v>5</v>
       </c>
-      <c r="G26" s="143">
+      <c r="G26" s="90">
         <v>0</v>
       </c>
-      <c r="H26" s="162">
+      <c r="H26" s="98">
         <f t="shared" ref="H26:H28" si="1">(C26*5+D26*4+E26*3+F26*2+G26*1)/40</f>
         <v>3.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="99" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="144" t="s">
+      <c r="B27" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="143">
+      <c r="C27" s="90">
         <v>10</v>
       </c>
-      <c r="D27" s="143">
+      <c r="D27" s="90">
         <v>8</v>
       </c>
-      <c r="E27" s="143">
+      <c r="E27" s="90">
         <v>14</v>
       </c>
-      <c r="F27" s="143">
+      <c r="F27" s="90">
         <v>7</v>
       </c>
-      <c r="G27" s="143">
+      <c r="G27" s="90">
         <v>1</v>
       </c>
-      <c r="H27" s="162">
+      <c r="H27" s="98">
         <f t="shared" si="1"/>
         <v>3.4750000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="143">
+      <c r="C28" s="90">
         <v>11</v>
       </c>
-      <c r="D28" s="143">
+      <c r="D28" s="90">
         <v>12</v>
       </c>
-      <c r="E28" s="143">
+      <c r="E28" s="90">
         <v>11</v>
       </c>
-      <c r="F28" s="143">
+      <c r="F28" s="90">
         <v>5</v>
       </c>
-      <c r="G28" s="143">
+      <c r="G28" s="90">
         <v>1</v>
       </c>
-      <c r="H28" s="162">
+      <c r="H28" s="98">
         <f t="shared" si="1"/>
         <v>3.6749999999999998</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="162">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="98">
         <f>SUM(H30:H31)/2</f>
         <v>3.25</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="143">
+      <c r="C30" s="90">
         <v>6</v>
       </c>
-      <c r="D30" s="143">
+      <c r="D30" s="90">
         <v>6</v>
       </c>
-      <c r="E30" s="143">
+      <c r="E30" s="90">
         <v>14</v>
       </c>
-      <c r="F30" s="143">
+      <c r="F30" s="90">
         <v>12</v>
       </c>
-      <c r="G30" s="143">
+      <c r="G30" s="90">
         <v>2</v>
       </c>
-      <c r="H30" s="162">
+      <c r="H30" s="98">
         <f>(C30*5+D30*4+E30*3+F30*2+G30)/40</f>
         <v>3.05</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="143">
+      <c r="C31" s="90">
         <v>11</v>
       </c>
-      <c r="D31" s="143">
+      <c r="D31" s="90">
         <v>10</v>
       </c>
-      <c r="E31" s="143">
+      <c r="E31" s="90">
         <v>8</v>
       </c>
-      <c r="F31" s="143">
+      <c r="F31" s="90">
         <v>8</v>
       </c>
-      <c r="G31" s="143">
+      <c r="G31" s="90">
         <v>3</v>
       </c>
-      <c r="H31" s="162">
+      <c r="H31" s="98">
         <f>(C31*5+D31*4+E31*3+F31*2+G31)/40</f>
         <v>3.45</v>
       </c>
@@ -3867,7 +5193,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="122" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -3890,7 +5216,7 @@
       </c>
     </row>
     <row r="5" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="112"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
@@ -3911,7 +5237,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="113"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
@@ -3932,7 +5258,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -3955,7 +5281,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="99"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
@@ -3976,7 +5302,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="100"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="42" t="s">
         <v>28</v>
       </c>
@@ -4030,15 +5356,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="3:9" s="13" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
@@ -4052,19 +5378,19 @@
       <c r="G4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
     </row>
     <row r="5" spans="3:9" s="13" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="123"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
     </row>
     <row r="6" spans="3:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="22" t="s">
@@ -4090,7 +5416,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -4113,7 +5439,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="99"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
@@ -4134,7 +5460,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="99"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
@@ -4155,7 +5481,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -4178,7 +5504,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="99"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
@@ -4199,10 +5525,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="112" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -4222,8 +5548,8 @@
       </c>
     </row>
     <row r="13" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="99"/>
-      <c r="D13" s="101"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="24" t="s">
         <v>49</v>
       </c>
@@ -4241,7 +5567,7 @@
       </c>
     </row>
     <row r="14" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="99"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="24" t="s">
         <v>24</v>
       </c>
@@ -4262,14 +5588,14 @@
       </c>
     </row>
     <row r="15" spans="3:9" s="14" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="32">
         <f>SUM(I7:I14)</f>
         <v>75.400000000000006</v>
@@ -4329,365 +5655,365 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="150">
         <v>8</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="147">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="128"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="139"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="148"/>
     </row>
     <row r="6" spans="3:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="128"/>
-      <c r="D6" s="131"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="139"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="148"/>
     </row>
     <row r="7" spans="3:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="128"/>
-      <c r="D7" s="131"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="140"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="149"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="128"/>
-      <c r="D8" s="131" t="s">
+      <c r="C8" s="156"/>
+      <c r="D8" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="135">
+      <c r="F8" s="150">
         <v>7</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="147">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="128"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="139"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="148"/>
     </row>
     <row r="10" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="128"/>
-      <c r="D10" s="131"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="139"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="128"/>
-      <c r="D11" s="131"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="137"/>
-      <c r="G11" s="140"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="149"/>
     </row>
     <row r="12" spans="3:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="128"/>
-      <c r="D12" s="131" t="s">
+      <c r="C12" s="156"/>
+      <c r="D12" s="159" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="150">
         <v>8</v>
       </c>
-      <c r="G12" s="138">
+      <c r="G12" s="147">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:7" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="128"/>
-      <c r="D13" s="131"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="139"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="148"/>
     </row>
     <row r="14" spans="3:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="128"/>
-      <c r="D14" s="131"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="137"/>
-      <c r="G14" s="140"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="149"/>
     </row>
     <row r="15" spans="3:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="132" t="s">
+      <c r="D15" s="160" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="135">
+      <c r="F15" s="150">
         <v>8</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="147">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="C16" s="128"/>
-      <c r="D16" s="132"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="160"/>
       <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="139"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="148"/>
     </row>
     <row r="17" spans="3:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="128"/>
-      <c r="D17" s="132"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="160"/>
       <c r="E17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="140"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="149"/>
     </row>
     <row r="18" spans="3:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="C18" s="128"/>
-      <c r="D18" s="132" t="s">
+      <c r="C18" s="156"/>
+      <c r="D18" s="160" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="135">
+      <c r="F18" s="150">
         <v>8</v>
       </c>
-      <c r="G18" s="138">
+      <c r="G18" s="147">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="128"/>
-      <c r="D19" s="132"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="139"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="148"/>
     </row>
     <row r="20" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="128"/>
-      <c r="D20" s="132"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="140"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="149"/>
     </row>
     <row r="21" spans="3:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="128"/>
-      <c r="D21" s="132" t="s">
+      <c r="C21" s="156"/>
+      <c r="D21" s="160" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="135">
+      <c r="F21" s="150">
         <v>8</v>
       </c>
-      <c r="G21" s="138">
+      <c r="G21" s="147">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="128"/>
-      <c r="D22" s="132"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="160"/>
       <c r="E22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="136"/>
-      <c r="G22" s="139"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="148"/>
     </row>
     <row r="23" spans="3:9" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="128"/>
-      <c r="D23" s="132"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="137"/>
-      <c r="G23" s="140"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="149"/>
     </row>
     <row r="24" spans="3:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="128"/>
-      <c r="D24" s="132" t="s">
+      <c r="C24" s="156"/>
+      <c r="D24" s="160" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="135">
+      <c r="F24" s="150">
         <v>8</v>
       </c>
-      <c r="G24" s="138">
+      <c r="G24" s="147">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="128"/>
-      <c r="D25" s="132"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="160"/>
       <c r="E25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="136"/>
-      <c r="G25" s="139"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="148"/>
     </row>
     <row r="26" spans="3:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="C26" s="128"/>
-      <c r="D26" s="132"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="160"/>
       <c r="E26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="140"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="149"/>
     </row>
     <row r="27" spans="3:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="132" t="s">
+      <c r="D27" s="160" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="135">
+      <c r="F27" s="150">
         <v>8</v>
       </c>
-      <c r="G27" s="138">
+      <c r="G27" s="147">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="130"/>
-      <c r="D28" s="132"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="160"/>
       <c r="E28" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="136"/>
-      <c r="G28" s="139"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="148"/>
     </row>
     <row r="29" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="130"/>
-      <c r="D29" s="132"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="160"/>
       <c r="E29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="137"/>
-      <c r="G29" s="140"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="149"/>
       <c r="I29" s="1">
         <f>75.4*0.8+77*0.2</f>
         <v>75.720000000000013</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="130"/>
-      <c r="D30" s="132" t="s">
+      <c r="C30" s="158"/>
+      <c r="D30" s="160" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="135">
+      <c r="F30" s="150">
         <v>8</v>
       </c>
-      <c r="G30" s="138">
+      <c r="G30" s="147">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="C31" s="130"/>
-      <c r="D31" s="132"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="160"/>
       <c r="E31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="136"/>
-      <c r="G31" s="139"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="148"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C32" s="130"/>
-      <c r="D32" s="132"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="160"/>
       <c r="E32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="137"/>
-      <c r="G32" s="140"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="149"/>
     </row>
     <row r="33" spans="3:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="C33" s="130"/>
-      <c r="D33" s="133" t="s">
+      <c r="C33" s="158"/>
+      <c r="D33" s="161" t="s">
         <v>108</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="135">
+      <c r="F33" s="150">
         <v>7</v>
       </c>
-      <c r="G33" s="138">
+      <c r="G33" s="147">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="C34" s="130"/>
-      <c r="D34" s="133"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="161"/>
       <c r="E34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="136"/>
-      <c r="G34" s="139"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="148"/>
     </row>
     <row r="35" spans="3:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="C35" s="130"/>
-      <c r="D35" s="133"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="161"/>
       <c r="E35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="137"/>
-      <c r="G35" s="140"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="149"/>
     </row>
     <row r="36" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="127"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="155"/>
       <c r="F36" s="11">
         <f>SUM(F4:F35)</f>
         <v>78</v>
@@ -4699,26 +6025,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F20"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C4:C14"/>
     <mergeCell ref="C15:C26"/>
@@ -4735,6 +6041,26 @@
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/MBA/绩效目标.xlsx
+++ b/MBA/绩效目标.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="部门绩效目标" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="167">
   <si>
     <t>维度</t>
   </si>
@@ -579,6 +579,42 @@
     </rPh>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>截止时间</t>
+  </si>
+  <si>
+    <t>25岁以下</t>
+  </si>
+  <si>
+    <t>26-30岁</t>
+  </si>
+  <si>
+    <t>31岁-35岁</t>
+  </si>
+  <si>
+    <t>35-40岁</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>2016年12月</t>
+  </si>
+  <si>
+    <t>1 人</t>
+  </si>
+  <si>
+    <t>15 人</t>
+  </si>
+  <si>
+    <t>16 人</t>
+  </si>
+  <si>
+    <t>33 人</t>
+  </si>
+  <si>
+    <t>所占比例</t>
+  </si>
 </sst>
 </file>
 
@@ -587,7 +623,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1509,7 +1545,7 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1523,8 +1559,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1812,6 +1850,45 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1863,24 +1940,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1956,6 +2033,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1965,86 +2081,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2052,12 +2096,14 @@
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2316,11 +2362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-864631232"/>
-        <c:axId val="-864902784"/>
+        <c:axId val="-36517808"/>
+        <c:axId val="785376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-864631232"/>
+        <c:axId val="-36517808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +2409,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864902784"/>
+        <c:crossAx val="785376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2371,7 +2417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-864902784"/>
+        <c:axId val="785376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864631232"/>
+        <c:crossAx val="-36517808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3366,7 +3412,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="115" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="81" t="s">
@@ -3380,7 +3426,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="103"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="81" t="s">
         <v>6</v>
       </c>
@@ -3392,7 +3438,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="104"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="84" t="s">
         <v>7</v>
       </c>
@@ -3404,10 +3450,10 @@
       </c>
     </row>
     <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="120" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="82" t="s">
@@ -3418,8 +3464,8 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="105"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="82" t="s">
         <v>11</v>
       </c>
@@ -3428,8 +3474,8 @@
       </c>
     </row>
     <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="105"/>
-      <c r="D9" s="101"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="82" t="s">
         <v>12</v>
       </c>
@@ -3438,44 +3484,44 @@
       </c>
     </row>
     <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="115" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="112" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="85"/>
     </row>
     <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="103"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="85"/>
     </row>
     <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="103"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="85"/>
     </row>
     <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="103"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="85"/>
     </row>
     <row r="14" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="103"/>
-      <c r="D14" s="108"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="82" t="s">
         <v>19</v>
       </c>
@@ -3484,8 +3530,8 @@
       </c>
     </row>
     <row r="15" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="104"/>
-      <c r="D15" s="109"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="82" t="s">
         <v>20</v>
       </c>
@@ -3494,7 +3540,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="118" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="82" t="s">
@@ -3508,7 +3554,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="105"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="82" t="s">
         <v>23</v>
       </c>
@@ -3516,7 +3562,7 @@
       <c r="F17" s="85"/>
     </row>
     <row r="18" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="106"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="86" t="s">
         <v>24</v>
       </c>
@@ -3544,15 +3590,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J6"/>
+  <dimension ref="C2:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.1640625" style="163" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="99" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" customWidth="1"/>
@@ -3563,85 +3609,145 @@
   <sheetData>
     <row r="2" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="171" t="s">
+      <c r="D3" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="171" t="s">
+      <c r="E3" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="171" t="s">
+      <c r="F3" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="171" t="s">
+      <c r="G3" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="172" t="s">
+      <c r="I3" s="108" t="s">
         <v>153</v>
       </c>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="3:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="164">
+      <c r="C4" s="100">
         <v>42705</v>
       </c>
-      <c r="D4" s="165">
+      <c r="D4" s="101">
         <v>3.1</v>
       </c>
-      <c r="E4" s="165">
+      <c r="E4" s="101">
         <v>3.24</v>
       </c>
-      <c r="F4" s="165">
+      <c r="F4" s="101">
         <v>2.89</v>
       </c>
-      <c r="G4" s="165">
+      <c r="G4" s="101">
         <v>3.63</v>
       </c>
-      <c r="H4" s="165">
+      <c r="H4" s="101">
         <v>2.92</v>
       </c>
-      <c r="I4" s="166">
+      <c r="I4" s="102">
         <f>(D4*5+E4*4+F4*4+G4*6+H4*2)/21</f>
         <v>3.2209523809523808</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="167">
+      <c r="C5" s="103">
         <v>42917</v>
       </c>
-      <c r="D5" s="168">
+      <c r="D5" s="104">
         <v>3.87</v>
       </c>
-      <c r="E5" s="168">
+      <c r="E5" s="104">
         <v>3.57</v>
       </c>
-      <c r="F5" s="168">
+      <c r="F5" s="104">
         <v>3.5</v>
       </c>
-      <c r="G5" s="168">
+      <c r="G5" s="104">
         <v>3.74</v>
       </c>
-      <c r="H5" s="168">
+      <c r="H5" s="104">
         <v>3.25</v>
       </c>
-      <c r="I5" s="169">
+      <c r="I5" s="105">
         <f>(D5*5+E5*4+F5*4+G5*6+H5*2)/21</f>
         <v>3.6461904761904766</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="173"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="175"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
+    </row>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N18" s="176" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" s="176" t="s">
+        <v>156</v>
+      </c>
+      <c r="P18" s="176" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q18" s="176" t="s">
+        <v>158</v>
+      </c>
+      <c r="R18" s="176" t="s">
+        <v>159</v>
+      </c>
+      <c r="S18" s="176" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N19" s="176" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" s="176" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19" s="176" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="176" t="s">
+        <v>164</v>
+      </c>
+      <c r="R19" s="176" t="s">
+        <v>162</v>
+      </c>
+      <c r="S19" s="176" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N20" s="176" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" s="177">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="P20" s="177">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="Q20" s="177">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="R20" s="177">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="S20" s="177">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -3682,7 +3788,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="123" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -3696,7 +3802,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="110"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
@@ -3708,7 +3814,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="110"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3720,7 +3826,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -3734,7 +3840,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="110"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="76" t="s">
         <v>11</v>
       </c>
@@ -3746,27 +3852,27 @@
       </c>
     </row>
     <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="125" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="75"/>
     </row>
     <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="110"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="112"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="123" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="74" t="s">
@@ -3778,7 +3884,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="111"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="77" t="s">
         <v>24</v>
       </c>
@@ -3831,7 +3937,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="123" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -3845,7 +3951,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="110"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
@@ -3857,7 +3963,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="110"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3869,7 +3975,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -3883,8 +3989,8 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="110"/>
-      <c r="D8" s="107" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="74" t="s">
@@ -3895,8 +4001,8 @@
       </c>
     </row>
     <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="110"/>
-      <c r="D9" s="115"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="74" t="s">
         <v>28</v>
       </c>
@@ -3905,43 +4011,43 @@
       </c>
     </row>
     <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="126" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="110"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="113"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="75"/>
     </row>
     <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="123" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="120" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="75"/>
     </row>
     <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="111"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="78"/>
     </row>
   </sheetData>
@@ -4001,7 +4107,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="129" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="53" t="s">
@@ -4024,7 +4130,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C9" s="118"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="53" t="s">
         <v>6</v>
       </c>
@@ -4045,7 +4151,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C10" s="118"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="56" t="s">
         <v>7</v>
       </c>
@@ -4066,7 +4172,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="129" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="59" t="s">
@@ -4089,39 +4195,39 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="118"/>
-      <c r="D12" s="120" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="131" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="133">
         <v>6</v>
       </c>
-      <c r="G12" s="116">
+      <c r="G12" s="133">
         <v>5</v>
       </c>
-      <c r="H12" s="116">
+      <c r="H12" s="133">
         <v>4.5</v>
       </c>
-      <c r="I12" s="117">
+      <c r="I12" s="134">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C13" s="118"/>
-      <c r="D13" s="120"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="117"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
     </row>
     <row r="14" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C14" s="118"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="53" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4248,7 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="129" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="53" t="s">
@@ -4165,7 +4271,7 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C16" s="118"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="53" t="s">
         <v>20</v>
       </c>
@@ -4186,10 +4292,10 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="132" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="54" t="s">
@@ -4209,8 +4315,8 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C18" s="119"/>
-      <c r="D18" s="121"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="132"/>
       <c r="E18" s="57" t="s">
         <v>49</v>
       </c>
@@ -4228,7 +4334,7 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="C19" s="119"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="63" t="s">
         <v>24</v>
       </c>
@@ -4250,16 +4356,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4307,7 +4413,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="135" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -4330,7 +4436,7 @@
       </c>
     </row>
     <row r="5" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="123"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
@@ -4351,7 +4457,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="124"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
@@ -4372,7 +4478,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -4395,7 +4501,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="110"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
@@ -4416,10 +4522,10 @@
       </c>
     </row>
     <row r="9" spans="3:9" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="138" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -4439,8 +4545,8 @@
       </c>
     </row>
     <row r="10" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="122"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="38" t="s">
         <v>49</v>
       </c>
@@ -4458,7 +4564,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" s="14" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="111"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
@@ -4509,22 +4615,22 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="147"/>
       <c r="H3" s="97" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="136"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="89" t="s">
         <v>116</v>
       </c>
@@ -4540,10 +4646,10 @@
       <c r="G4" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="130"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="90" t="s">
         <v>117</v>
       </c>
@@ -4559,17 +4665,17 @@
       <c r="G5" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="131"/>
+      <c r="H5" s="144"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="98">
         <f>SUM(H7:H11)/5</f>
         <v>3.87</v>
@@ -4696,14 +4802,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="98">
         <f>SUM(H13:H16)/4</f>
         <v>3.5687499999999996</v>
@@ -4916,14 +5022,14 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="129"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="98">
         <f>SUM(H23:H28)/6</f>
         <v>3.7416666666666671</v>
@@ -5193,7 +5299,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="135" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -5216,7 +5322,7 @@
       </c>
     </row>
     <row r="5" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="123"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
@@ -5237,7 +5343,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="124"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5364,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -5281,7 +5387,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="110"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
@@ -5302,7 +5408,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="111"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="42" t="s">
         <v>28</v>
       </c>
@@ -5356,15 +5462,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="3:9" s="13" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
@@ -5378,19 +5484,19 @@
       <c r="G4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="3:9" s="13" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="145"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="158"/>
     </row>
     <row r="6" spans="3:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="22" t="s">
@@ -5416,7 +5522,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="123" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -5439,7 +5545,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="110"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
@@ -5460,7 +5566,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="110"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
@@ -5481,7 +5587,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -5504,7 +5610,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="110"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
@@ -5525,10 +5631,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="125" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -5548,8 +5654,8 @@
       </c>
     </row>
     <row r="13" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="110"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="24" t="s">
         <v>49</v>
       </c>
@@ -5567,7 +5673,7 @@
       </c>
     </row>
     <row r="14" spans="3:9" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="110"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="24" t="s">
         <v>24</v>
       </c>
@@ -5588,14 +5694,14 @@
       </c>
     </row>
     <row r="15" spans="3:9" s="14" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
       <c r="I15" s="32">
         <f>SUM(I7:I14)</f>
         <v>75.400000000000006</v>
@@ -5655,365 +5761,365 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="162" t="s">
+      <c r="E4" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="150">
+      <c r="F4" s="170">
         <v>8</v>
       </c>
-      <c r="G4" s="147">
+      <c r="G4" s="173">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="156"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="148"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="3:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="156"/>
-      <c r="D6" s="159"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="166"/>
       <c r="E6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="151"/>
-      <c r="G6" s="148"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="3:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="156"/>
-      <c r="D7" s="159"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="152"/>
-      <c r="G7" s="149"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="175"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="156"/>
-      <c r="D8" s="159" t="s">
+      <c r="C8" s="163"/>
+      <c r="D8" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="162" t="s">
+      <c r="E8" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="150">
+      <c r="F8" s="170">
         <v>7</v>
       </c>
-      <c r="G8" s="147">
+      <c r="G8" s="173">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="156"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="148"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="174"/>
     </row>
     <row r="10" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="156"/>
-      <c r="D10" s="159"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="166"/>
       <c r="E10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="151"/>
-      <c r="G10" s="148"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="11" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="156"/>
-      <c r="D11" s="159"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="149"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="175"/>
     </row>
     <row r="12" spans="3:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="156"/>
-      <c r="D12" s="159" t="s">
+      <c r="C12" s="163"/>
+      <c r="D12" s="166" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="150">
+      <c r="F12" s="170">
         <v>8</v>
       </c>
-      <c r="G12" s="147">
+      <c r="G12" s="173">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:7" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="156"/>
-      <c r="D13" s="159"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="148"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="174"/>
     </row>
     <row r="14" spans="3:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="156"/>
-      <c r="D14" s="159"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="152"/>
-      <c r="G14" s="149"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="175"/>
     </row>
     <row r="15" spans="3:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="167" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="150">
+      <c r="F15" s="170">
         <v>8</v>
       </c>
-      <c r="G15" s="147">
+      <c r="G15" s="173">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="C16" s="156"/>
-      <c r="D16" s="160"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="151"/>
-      <c r="G16" s="148"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" spans="3:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="156"/>
-      <c r="D17" s="160"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="152"/>
-      <c r="G17" s="149"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="175"/>
     </row>
     <row r="18" spans="3:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="C18" s="156"/>
-      <c r="D18" s="160" t="s">
+      <c r="C18" s="163"/>
+      <c r="D18" s="167" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="150">
+      <c r="F18" s="170">
         <v>8</v>
       </c>
-      <c r="G18" s="147">
+      <c r="G18" s="173">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="156"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="151"/>
-      <c r="G19" s="148"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="156"/>
-      <c r="D20" s="160"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="152"/>
-      <c r="G20" s="149"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="175"/>
     </row>
     <row r="21" spans="3:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="156"/>
-      <c r="D21" s="160" t="s">
+      <c r="C21" s="163"/>
+      <c r="D21" s="167" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="150">
+      <c r="F21" s="170">
         <v>8</v>
       </c>
-      <c r="G21" s="147">
+      <c r="G21" s="173">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="156"/>
-      <c r="D22" s="160"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="151"/>
-      <c r="G22" s="148"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="174"/>
     </row>
     <row r="23" spans="3:9" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="156"/>
-      <c r="D23" s="160"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="152"/>
-      <c r="G23" s="149"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="175"/>
     </row>
     <row r="24" spans="3:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="156"/>
-      <c r="D24" s="160" t="s">
+      <c r="C24" s="163"/>
+      <c r="D24" s="167" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="150">
+      <c r="F24" s="170">
         <v>8</v>
       </c>
-      <c r="G24" s="147">
+      <c r="G24" s="173">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="156"/>
-      <c r="D25" s="160"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="151"/>
-      <c r="G25" s="148"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="174"/>
     </row>
     <row r="26" spans="3:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="C26" s="156"/>
-      <c r="D26" s="160"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="152"/>
-      <c r="G26" s="149"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="175"/>
     </row>
     <row r="27" spans="3:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="157" t="s">
+      <c r="C27" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="167" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="170">
         <v>8</v>
       </c>
-      <c r="G27" s="147">
+      <c r="G27" s="173">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="158"/>
-      <c r="D28" s="160"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="151"/>
-      <c r="G28" s="148"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="174"/>
     </row>
     <row r="29" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="158"/>
-      <c r="D29" s="160"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="152"/>
-      <c r="G29" s="149"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="175"/>
       <c r="I29" s="1">
         <f>75.4*0.8+77*0.2</f>
         <v>75.720000000000013</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="158"/>
-      <c r="D30" s="160" t="s">
+      <c r="C30" s="165"/>
+      <c r="D30" s="167" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="170">
         <v>8</v>
       </c>
-      <c r="G30" s="147">
+      <c r="G30" s="173">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="C31" s="158"/>
-      <c r="D31" s="160"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="167"/>
       <c r="E31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="151"/>
-      <c r="G31" s="148"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="174"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C32" s="158"/>
-      <c r="D32" s="160"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="167"/>
       <c r="E32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="152"/>
-      <c r="G32" s="149"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="175"/>
     </row>
     <row r="33" spans="3:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="C33" s="158"/>
-      <c r="D33" s="161" t="s">
+      <c r="C33" s="165"/>
+      <c r="D33" s="168" t="s">
         <v>108</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="150">
+      <c r="F33" s="170">
         <v>7</v>
       </c>
-      <c r="G33" s="147">
+      <c r="G33" s="173">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="C34" s="158"/>
-      <c r="D34" s="161"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="151"/>
-      <c r="G34" s="148"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="174"/>
     </row>
     <row r="35" spans="3:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="C35" s="158"/>
-      <c r="D35" s="161"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="152"/>
-      <c r="G35" s="149"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="175"/>
     </row>
     <row r="36" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="153" t="s">
+      <c r="C36" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="154"/>
-      <c r="E36" s="155"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="162"/>
       <c r="F36" s="11">
         <f>SUM(F4:F35)</f>
         <v>78</v>
@@ -6025,6 +6131,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C4:C14"/>
     <mergeCell ref="C15:C26"/>
@@ -6041,26 +6167,6 @@
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/MBA/绩效目标.xlsx
+++ b/MBA/绩效目标.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="部门绩效目标" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="项目经理考核表" sheetId="7" r:id="rId8"/>
     <sheet name="项目经理考核表-态度部分" sheetId="8" r:id="rId9"/>
     <sheet name="工作表1" sheetId="10" r:id="rId10"/>
+    <sheet name="工作表2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="187">
   <si>
     <t>维度</t>
   </si>
@@ -614,6 +615,266 @@
   </si>
   <si>
     <t>所占比例</t>
+  </si>
+  <si>
+    <t>绩效计划</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <rPh sb="0" eb="1">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题内容</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'r</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放式问题占比</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fang'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhan'bi</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效目标的分解有问题并且设计不合理</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体目标和部门目标、个人目标关联性差</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不清楚自己的个人绩效目标</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司不会及时总结绩效管理中发现的问题</t>
+    <rPh sb="2" eb="3">
+      <t>bu'hui</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效实施</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'shi</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效考核</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kao'he</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效考核的频率不合理</t>
+    <rPh sb="7" eb="8">
+      <t>bu</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效反馈</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'kui</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会对员工的优异表现表示肯定</t>
+    <rPh sb="0" eb="1">
+      <t>bu'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'gon</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao'x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ken'd</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通压力大，批评很多</t>
+    <rPh sb="0" eb="1">
+      <t>gou't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ya'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pi'p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hen'duo</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效反馈没有产生积极影响</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chan's</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying'x</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查平均分</t>
+    <rPh sb="0" eb="1">
+      <t>diao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核结果和职位薪酬关联不大</t>
+    <rPh sb="0" eb="1">
+      <t>kao'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'w</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin'chou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guan'l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>da</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效结果的应用</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying'y</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出的问题没有及时解决</t>
+    <rPh sb="0" eb="1">
+      <t>ti'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'j</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核结果不公正</t>
+    <rPh sb="0" eb="1">
+      <t>kao'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'z</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1545,7 +1806,7 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1561,8 +1822,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2087,8 +2350,29 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2097,6 +2381,7 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2104,6 +2389,7 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3592,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3605,6 +3891,8 @@
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="96" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" customWidth="1"/>
+    <col min="20" max="20" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3754,6 +4042,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13" style="14" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="179" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="179" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="179" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C3" s="180" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="178" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="179">
+        <v>2.64</v>
+      </c>
+      <c r="F3" s="179"/>
+    </row>
+    <row r="4" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C4" s="181"/>
+      <c r="D4" s="178" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="179">
+        <v>2.61</v>
+      </c>
+      <c r="F4" s="179"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="182"/>
+      <c r="D5" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="179">
+        <v>2.85</v>
+      </c>
+      <c r="F5" s="179"/>
+    </row>
+    <row r="6" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C6" s="179" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="178" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="179">
+        <v>2.73</v>
+      </c>
+      <c r="F6" s="179"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="178" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="179">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F7" s="183">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="182"/>
+      <c r="D8" s="178" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="179">
+        <v>3.09</v>
+      </c>
+      <c r="F8" s="183">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="180" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="178" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="179">
+        <v>2.82</v>
+      </c>
+      <c r="F9" s="179"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="181"/>
+      <c r="D10" s="178" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="179"/>
+      <c r="F10" s="183">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="182"/>
+      <c r="D11" s="178" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="179">
+        <v>2.91</v>
+      </c>
+      <c r="F11" s="179"/>
+    </row>
+    <row r="12" spans="3:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="180" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="184" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="179">
+        <v>2.94</v>
+      </c>
+      <c r="F12" s="179"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="182"/>
+      <c r="D13" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="179">
+        <v>2.91</v>
+      </c>
+      <c r="F13" s="179"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/MBA/绩效目标.xlsx
+++ b/MBA/绩效目标.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="188">
   <si>
     <t>维度</t>
   </si>
@@ -873,6 +873,31 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>gong'z</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定目标时参与感不强</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>can'yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qiang</t>
     </rPh>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -886,7 +911,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1028,6 +1053,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1806,8 +1839,12 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2350,29 +2387,29 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2382,6 +2419,8 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2390,6 +2429,8 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4050,7 +4091,7 @@
   <dimension ref="C2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C2" sqref="C2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4062,155 +4103,161 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="178" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="179" t="s">
+      <c r="D2" s="178" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="179" t="s">
+      <c r="E2" s="178" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="179" t="s">
+      <c r="F2" s="178" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="C3" s="180" t="s">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="179">
+      <c r="E3" s="178">
         <v>2.64</v>
       </c>
-      <c r="F3" s="179"/>
-    </row>
-    <row r="4" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F3" s="178"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" s="181"/>
-      <c r="D4" s="178" t="s">
+      <c r="D4" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="179">
+      <c r="E4" s="178">
         <v>2.61</v>
       </c>
-      <c r="F4" s="179"/>
+      <c r="F4" s="178"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="182"/>
-      <c r="D5" s="178" t="s">
+      <c r="C5" s="181"/>
+      <c r="D5" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="179">
+      <c r="E5" s="178">
         <v>2.85</v>
       </c>
-      <c r="F5" s="179"/>
-    </row>
-    <row r="6" spans="3:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="C6" s="179" t="s">
+      <c r="F5" s="178"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="182"/>
+      <c r="D6" s="180" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="178"/>
+      <c r="F6" s="183">
+        <v>0.21179999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="178" t="s">
+      <c r="D7" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="179">
+      <c r="E7" s="178">
         <v>2.73</v>
       </c>
-      <c r="F6" s="179"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="180" t="s">
+      <c r="F7" s="178"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="179" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D8" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="179">
+      <c r="E8" s="178">
         <v>2.1800000000000002</v>
-      </c>
-      <c r="F7" s="183">
-        <v>0.30299999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="182"/>
-      <c r="D8" s="178" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="179">
-        <v>3.09</v>
       </c>
       <c r="F8" s="183">
         <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="182"/>
+      <c r="D9" s="180" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="178">
+        <v>3.09</v>
+      </c>
+      <c r="F9" s="183">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="D10" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="179">
+      <c r="E10" s="178">
         <v>2.82</v>
       </c>
-      <c r="F9" s="179"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="181"/>
-      <c r="D10" s="178" t="s">
+      <c r="F10" s="178"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="181"/>
+      <c r="D11" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="183">
+      <c r="E11" s="178"/>
+      <c r="F11" s="183">
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="182"/>
-      <c r="D11" s="178" t="s">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="182"/>
+      <c r="D12" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="179">
+      <c r="E12" s="178">
         <v>2.91</v>
       </c>
-      <c r="F11" s="179"/>
-    </row>
-    <row r="12" spans="3:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="180" t="s">
+      <c r="F12" s="178"/>
+    </row>
+    <row r="13" spans="3:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="179" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D13" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="179">
+      <c r="E13" s="178">
         <v>2.94</v>
       </c>
-      <c r="F12" s="179"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="182"/>
-      <c r="D13" s="178" t="s">
+      <c r="F13" s="183">
+        <v>0.2727</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="182"/>
+      <c r="D14" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="179">
+      <c r="E14" s="178">
         <v>2.91</v>
       </c>
-      <c r="F13" s="179"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
+      <c r="F14" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
